--- a/PRESET_GUIDE_ORGANIZED.xlsx
+++ b/PRESET_GUIDE_ORGANIZED.xlsx
@@ -211,7 +211,7 @@
       </c>
       <c r="B4" t="inlineStr" s="5">
         <is>
-          <t>Chance Preset Off disables chance rolls (cooldown only). Always forces 100%.</t>
+          <t>Chance Preset Off disables chance rolls (cooldown only).</t>
         </is>
       </c>
       <c r="C4" t="inlineStr" s="5">
@@ -2671,7 +2671,7 @@
     <row r="149">
       <c r="A149" t="inlineStr" s="7">
         <is>
-          <t>Chance Preset: Always (100%)</t>
+          <t>Cooldown Preset: Off (Disabled)</t>
         </is>
       </c>
       <c r="B149" t="inlineStr" s="7">
@@ -2693,7 +2693,7 @@
       </c>
       <c r="B150" t="inlineStr" s="4">
         <is>
-          <t>Chance</t>
+          <t>Cooldown (s)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr" s="4">
@@ -2708,10 +2708,8 @@
           <t>Basic Kill</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr" s="0">
-        <is>
-          <t>100%</t>
-        </is>
+      <c r="B151" s="0">
+        <v>0</v>
       </c>
       <c r="C151" t="inlineStr" s="0">
         <is>
@@ -2725,10 +2723,8 @@
           <t>Critical</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr" s="0">
-        <is>
-          <t>100%</t>
-        </is>
+      <c r="B152" s="0">
+        <v>0</v>
       </c>
       <c r="C152" t="inlineStr" s="0">
         <is>
@@ -2742,10 +2738,8 @@
           <t>Dismemberment</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr" s="0">
-        <is>
-          <t>100%</t>
-        </is>
+      <c r="B153" s="0">
+        <v>0</v>
       </c>
       <c r="C153" t="inlineStr" s="0">
         <is>
@@ -2759,10 +2753,8 @@
           <t>Decapitation</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr" s="0">
-        <is>
-          <t>100%</t>
-        </is>
+      <c r="B154" s="0">
+        <v>0</v>
       </c>
       <c r="C154" t="inlineStr" s="0">
         <is>
@@ -2776,10 +2768,8 @@
           <t>Parry</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr" s="0">
-        <is>
-          <t>100%</t>
-        </is>
+      <c r="B155" s="0">
+        <v>0</v>
       </c>
       <c r="C155" t="inlineStr" s="0">
         <is>
@@ -2793,10 +2783,8 @@
           <t>Last Enemy</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr" s="0">
-        <is>
-          <t>100%</t>
-        </is>
+      <c r="B156" s="0">
+        <v>0</v>
       </c>
       <c r="C156" t="inlineStr" s="0">
         <is>
@@ -2810,10 +2798,8 @@
           <t>Last Stand</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr" s="0">
-        <is>
-          <t>100%</t>
-        </is>
+      <c r="B157" s="0">
+        <v>0</v>
       </c>
       <c r="C157" t="inlineStr" s="0">
         <is>
@@ -2841,7 +2827,7 @@
     <row r="159">
       <c r="A159" t="inlineStr" s="7">
         <is>
-          <t>Cooldown Preset: Off (Disabled)</t>
+          <t>Cooldown Preset: Short (Cooldown x0.7)</t>
         </is>
       </c>
       <c r="B159" t="inlineStr" s="7">
@@ -2879,7 +2865,7 @@
         </is>
       </c>
       <c r="B161" s="0">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="C161" t="inlineStr" s="0">
         <is>
@@ -2894,7 +2880,7 @@
         </is>
       </c>
       <c r="B162" s="0">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="C162" t="inlineStr" s="0">
         <is>
@@ -2909,7 +2895,7 @@
         </is>
       </c>
       <c r="B163" s="0">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="C163" t="inlineStr" s="0">
         <is>
@@ -2924,7 +2910,7 @@
         </is>
       </c>
       <c r="B164" s="0">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="C164" t="inlineStr" s="0">
         <is>
@@ -2939,7 +2925,7 @@
         </is>
       </c>
       <c r="B165" s="0">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="C165" t="inlineStr" s="0">
         <is>
@@ -2969,7 +2955,7 @@
         </is>
       </c>
       <c r="B167" s="0">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="C167" t="inlineStr" s="0">
         <is>
@@ -2997,7 +2983,7 @@
     <row r="169">
       <c r="A169" t="inlineStr" s="7">
         <is>
-          <t>Cooldown Preset: Short (Cooldown x0.7)</t>
+          <t>Cooldown Preset: Balanced (Cooldown x1)</t>
         </is>
       </c>
       <c r="B169" t="inlineStr" s="7">
@@ -3035,7 +3021,7 @@
         </is>
       </c>
       <c r="B171" s="0">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="C171" t="inlineStr" s="0">
         <is>
@@ -3050,7 +3036,7 @@
         </is>
       </c>
       <c r="B172" s="0">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="C172" t="inlineStr" s="0">
         <is>
@@ -3065,7 +3051,7 @@
         </is>
       </c>
       <c r="B173" s="0">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="C173" t="inlineStr" s="0">
         <is>
@@ -3080,7 +3066,7 @@
         </is>
       </c>
       <c r="B174" s="0">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="C174" t="inlineStr" s="0">
         <is>
@@ -3095,7 +3081,7 @@
         </is>
       </c>
       <c r="B175" s="0">
-        <v>4.9</v>
+        <v>7</v>
       </c>
       <c r="C175" t="inlineStr" s="0">
         <is>
@@ -3125,7 +3111,7 @@
         </is>
       </c>
       <c r="B177" s="0">
-        <v>31.5</v>
+        <v>45</v>
       </c>
       <c r="C177" t="inlineStr" s="0">
         <is>
@@ -3153,7 +3139,7 @@
     <row r="179">
       <c r="A179" t="inlineStr" s="7">
         <is>
-          <t>Cooldown Preset: Balanced (Cooldown x1)</t>
+          <t>Cooldown Preset: Long (Cooldown x1.5)</t>
         </is>
       </c>
       <c r="B179" t="inlineStr" s="7">
@@ -3191,7 +3177,7 @@
         </is>
       </c>
       <c r="B181" s="0">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="C181" t="inlineStr" s="0">
         <is>
@@ -3206,7 +3192,7 @@
         </is>
       </c>
       <c r="B182" s="0">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="C182" t="inlineStr" s="0">
         <is>
@@ -3221,7 +3207,7 @@
         </is>
       </c>
       <c r="B183" s="0">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="C183" t="inlineStr" s="0">
         <is>
@@ -3236,7 +3222,7 @@
         </is>
       </c>
       <c r="B184" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C184" t="inlineStr" s="0">
         <is>
@@ -3251,7 +3237,7 @@
         </is>
       </c>
       <c r="B185" s="0">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="C185" t="inlineStr" s="0">
         <is>
@@ -3281,7 +3267,7 @@
         </is>
       </c>
       <c r="B187" s="0">
-        <v>45</v>
+        <v>67.5</v>
       </c>
       <c r="C187" t="inlineStr" s="0">
         <is>
@@ -3309,7 +3295,7 @@
     <row r="189">
       <c r="A189" t="inlineStr" s="7">
         <is>
-          <t>Cooldown Preset: Long (Cooldown x1.5)</t>
+          <t>Cooldown Preset: Extended (Cooldown x2)</t>
         </is>
       </c>
       <c r="B189" t="inlineStr" s="7">
@@ -3347,7 +3333,7 @@
         </is>
       </c>
       <c r="B191" s="0">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="C191" t="inlineStr" s="0">
         <is>
@@ -3362,7 +3348,7 @@
         </is>
       </c>
       <c r="B192" s="0">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="C192" t="inlineStr" s="0">
         <is>
@@ -3377,7 +3363,7 @@
         </is>
       </c>
       <c r="B193" s="0">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="C193" t="inlineStr" s="0">
         <is>
@@ -3392,7 +3378,7 @@
         </is>
       </c>
       <c r="B194" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C194" t="inlineStr" s="0">
         <is>
@@ -3407,7 +3393,7 @@
         </is>
       </c>
       <c r="B195" s="0">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="C195" t="inlineStr" s="0">
         <is>
@@ -3437,7 +3423,7 @@
         </is>
       </c>
       <c r="B197" s="0">
-        <v>67.5</v>
+        <v>90</v>
       </c>
       <c r="C197" t="inlineStr" s="0">
         <is>
@@ -3463,17 +3449,17 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr" s="7">
-        <is>
-          <t>Cooldown Preset: Extended (Cooldown x2)</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr" s="7">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr" s="7">
+      <c r="A199" t="inlineStr" s="8">
+        <is>
+          <t>Duration Preset: Short (Duration x0.75)</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr" s="8">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr" s="8">
         <is>
           <t/>
         </is>
@@ -3487,7 +3473,7 @@
       </c>
       <c r="B200" t="inlineStr" s="4">
         <is>
-          <t>Cooldown (s)</t>
+          <t>Duration (s)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr" s="4">
@@ -3503,7 +3489,7 @@
         </is>
       </c>
       <c r="B201" s="0">
-        <v>10</v>
+        <v>0.75</v>
       </c>
       <c r="C201" t="inlineStr" s="0">
         <is>
@@ -3518,7 +3504,7 @@
         </is>
       </c>
       <c r="B202" s="0">
-        <v>10</v>
+        <v>1.12</v>
       </c>
       <c r="C202" t="inlineStr" s="0">
         <is>
@@ -3533,7 +3519,7 @@
         </is>
       </c>
       <c r="B203" s="0">
-        <v>10</v>
+        <v>1.12</v>
       </c>
       <c r="C203" t="inlineStr" s="0">
         <is>
@@ -3548,7 +3534,7 @@
         </is>
       </c>
       <c r="B204" s="0">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="C204" t="inlineStr" s="0">
         <is>
@@ -3563,7 +3549,7 @@
         </is>
       </c>
       <c r="B205" s="0">
-        <v>14</v>
+        <v>0.9</v>
       </c>
       <c r="C205" t="inlineStr" s="0">
         <is>
@@ -3578,7 +3564,7 @@
         </is>
       </c>
       <c r="B206" s="0">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="C206" t="inlineStr" s="0">
         <is>
@@ -3593,7 +3579,7 @@
         </is>
       </c>
       <c r="B207" s="0">
-        <v>90</v>
+        <v>3.75</v>
       </c>
       <c r="C207" t="inlineStr" s="0">
         <is>
@@ -3621,7 +3607,7 @@
     <row r="209">
       <c r="A209" t="inlineStr" s="8">
         <is>
-          <t>Duration Preset: Short (Duration x0.75)</t>
+          <t>Duration Preset: Long (Duration x1.25)</t>
         </is>
       </c>
       <c r="B209" t="inlineStr" s="8">
@@ -3659,7 +3645,7 @@
         </is>
       </c>
       <c r="B211" s="0">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="C211" t="inlineStr" s="0">
         <is>
@@ -3674,7 +3660,7 @@
         </is>
       </c>
       <c r="B212" s="0">
-        <v>1.12</v>
+        <v>1.88</v>
       </c>
       <c r="C212" t="inlineStr" s="0">
         <is>
@@ -3689,7 +3675,7 @@
         </is>
       </c>
       <c r="B213" s="0">
-        <v>1.12</v>
+        <v>1.88</v>
       </c>
       <c r="C213" t="inlineStr" s="0">
         <is>
@@ -3704,7 +3690,7 @@
         </is>
       </c>
       <c r="B214" s="0">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="C214" t="inlineStr" s="0">
         <is>
@@ -3719,7 +3705,7 @@
         </is>
       </c>
       <c r="B215" s="0">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="C215" t="inlineStr" s="0">
         <is>
@@ -3734,7 +3720,7 @@
         </is>
       </c>
       <c r="B216" s="0">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="C216" t="inlineStr" s="0">
         <is>
@@ -3749,7 +3735,7 @@
         </is>
       </c>
       <c r="B217" s="0">
-        <v>3.75</v>
+        <v>6.25</v>
       </c>
       <c r="C217" t="inlineStr" s="0">
         <is>
@@ -3777,7 +3763,7 @@
     <row r="219">
       <c r="A219" t="inlineStr" s="8">
         <is>
-          <t>Duration Preset: Long (Duration x1.25)</t>
+          <t>Duration Preset: Extended (Duration x1.5)</t>
         </is>
       </c>
       <c r="B219" t="inlineStr" s="8">
@@ -3815,7 +3801,7 @@
         </is>
       </c>
       <c r="B221" s="0">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="C221" t="inlineStr" s="0">
         <is>
@@ -3830,7 +3816,7 @@
         </is>
       </c>
       <c r="B222" s="0">
-        <v>1.88</v>
+        <v>2.25</v>
       </c>
       <c r="C222" t="inlineStr" s="0">
         <is>
@@ -3845,7 +3831,7 @@
         </is>
       </c>
       <c r="B223" s="0">
-        <v>1.88</v>
+        <v>2.25</v>
       </c>
       <c r="C223" t="inlineStr" s="0">
         <is>
@@ -3860,7 +3846,7 @@
         </is>
       </c>
       <c r="B224" s="0">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C224" t="inlineStr" s="0">
         <is>
@@ -3875,7 +3861,7 @@
         </is>
       </c>
       <c r="B225" s="0">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="C225" t="inlineStr" s="0">
         <is>
@@ -3890,7 +3876,7 @@
         </is>
       </c>
       <c r="B226" s="0">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="C226" t="inlineStr" s="0">
         <is>
@@ -3905,7 +3891,7 @@
         </is>
       </c>
       <c r="B227" s="0">
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="C227" t="inlineStr" s="0">
         <is>
@@ -3931,17 +3917,17 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="inlineStr" s="8">
-        <is>
-          <t>Duration Preset: Extended (Duration x1.5)</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr" s="8">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr" s="8">
+      <c r="A229" t="inlineStr" s="9">
+        <is>
+          <t>Smoothness Preset: VerySnappy (Smoothing x1.6)</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr" s="9">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr" s="9">
         <is>
           <t/>
         </is>
@@ -3955,7 +3941,7 @@
       </c>
       <c r="B230" t="inlineStr" s="4">
         <is>
-          <t>Duration (s)</t>
+          <t>Smoothing</t>
         </is>
       </c>
       <c r="C230" t="inlineStr" s="4">
@@ -3971,7 +3957,7 @@
         </is>
       </c>
       <c r="B231" s="0">
-        <v>1.5</v>
+        <v>12.8</v>
       </c>
       <c r="C231" t="inlineStr" s="0">
         <is>
@@ -3986,7 +3972,7 @@
         </is>
       </c>
       <c r="B232" s="0">
-        <v>2.25</v>
+        <v>12.8</v>
       </c>
       <c r="C232" t="inlineStr" s="0">
         <is>
@@ -4001,7 +3987,7 @@
         </is>
       </c>
       <c r="B233" s="0">
-        <v>2.25</v>
+        <v>12.8</v>
       </c>
       <c r="C233" t="inlineStr" s="0">
         <is>
@@ -4016,7 +4002,7 @@
         </is>
       </c>
       <c r="B234" s="0">
-        <v>3</v>
+        <v>9.6</v>
       </c>
       <c r="C234" t="inlineStr" s="0">
         <is>
@@ -4031,7 +4017,7 @@
         </is>
       </c>
       <c r="B235" s="0">
-        <v>1.8</v>
+        <v>16</v>
       </c>
       <c r="C235" t="inlineStr" s="0">
         <is>
@@ -4046,7 +4032,7 @@
         </is>
       </c>
       <c r="B236" s="0">
-        <v>4.5</v>
+        <v>6.4</v>
       </c>
       <c r="C236" t="inlineStr" s="0">
         <is>
@@ -4061,7 +4047,7 @@
         </is>
       </c>
       <c r="B237" s="0">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="C237" t="inlineStr" s="0">
         <is>
@@ -4089,7 +4075,7 @@
     <row r="239">
       <c r="A239" t="inlineStr" s="9">
         <is>
-          <t>Smoothness Preset: VerySnappy (Smoothing x1.6)</t>
+          <t>Smoothness Preset: Snappy (Smoothing x1.25)</t>
         </is>
       </c>
       <c r="B239" t="inlineStr" s="9">
@@ -4127,7 +4113,7 @@
         </is>
       </c>
       <c r="B241" s="0">
-        <v>12.8</v>
+        <v>10</v>
       </c>
       <c r="C241" t="inlineStr" s="0">
         <is>
@@ -4142,7 +4128,7 @@
         </is>
       </c>
       <c r="B242" s="0">
-        <v>12.8</v>
+        <v>10</v>
       </c>
       <c r="C242" t="inlineStr" s="0">
         <is>
@@ -4157,7 +4143,7 @@
         </is>
       </c>
       <c r="B243" s="0">
-        <v>12.8</v>
+        <v>10</v>
       </c>
       <c r="C243" t="inlineStr" s="0">
         <is>
@@ -4172,7 +4158,7 @@
         </is>
       </c>
       <c r="B244" s="0">
-        <v>9.6</v>
+        <v>7.5</v>
       </c>
       <c r="C244" t="inlineStr" s="0">
         <is>
@@ -4187,7 +4173,7 @@
         </is>
       </c>
       <c r="B245" s="0">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="C245" t="inlineStr" s="0">
         <is>
@@ -4202,7 +4188,7 @@
         </is>
       </c>
       <c r="B246" s="0">
-        <v>6.4</v>
+        <v>5</v>
       </c>
       <c r="C246" t="inlineStr" s="0">
         <is>
@@ -4217,7 +4203,7 @@
         </is>
       </c>
       <c r="B247" s="0">
-        <v>6.4</v>
+        <v>5</v>
       </c>
       <c r="C247" t="inlineStr" s="0">
         <is>
@@ -4245,7 +4231,7 @@
     <row r="249">
       <c r="A249" t="inlineStr" s="9">
         <is>
-          <t>Smoothness Preset: Snappy (Smoothing x1.25)</t>
+          <t>Smoothness Preset: Smooth (Smoothing x0.75)</t>
         </is>
       </c>
       <c r="B249" t="inlineStr" s="9">
@@ -4283,7 +4269,7 @@
         </is>
       </c>
       <c r="B251" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C251" t="inlineStr" s="0">
         <is>
@@ -4298,7 +4284,7 @@
         </is>
       </c>
       <c r="B252" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C252" t="inlineStr" s="0">
         <is>
@@ -4313,7 +4299,7 @@
         </is>
       </c>
       <c r="B253" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C253" t="inlineStr" s="0">
         <is>
@@ -4328,7 +4314,7 @@
         </is>
       </c>
       <c r="B254" s="0">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="C254" t="inlineStr" s="0">
         <is>
@@ -4343,7 +4329,7 @@
         </is>
       </c>
       <c r="B255" s="0">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="C255" t="inlineStr" s="0">
         <is>
@@ -4358,7 +4344,7 @@
         </is>
       </c>
       <c r="B256" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C256" t="inlineStr" s="0">
         <is>
@@ -4373,7 +4359,7 @@
         </is>
       </c>
       <c r="B257" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C257" t="inlineStr" s="0">
         <is>
@@ -4401,7 +4387,7 @@
     <row r="259">
       <c r="A259" t="inlineStr" s="9">
         <is>
-          <t>Smoothness Preset: Smooth (Smoothing x0.75)</t>
+          <t>Smoothness Preset: Cinematic (Smoothing x0.6)</t>
         </is>
       </c>
       <c r="B259" t="inlineStr" s="9">
@@ -4439,7 +4425,7 @@
         </is>
       </c>
       <c r="B261" s="0">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="C261" t="inlineStr" s="0">
         <is>
@@ -4454,7 +4440,7 @@
         </is>
       </c>
       <c r="B262" s="0">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="C262" t="inlineStr" s="0">
         <is>
@@ -4469,7 +4455,7 @@
         </is>
       </c>
       <c r="B263" s="0">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="C263" t="inlineStr" s="0">
         <is>
@@ -4484,7 +4470,7 @@
         </is>
       </c>
       <c r="B264" s="0">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="C264" t="inlineStr" s="0">
         <is>
@@ -4499,7 +4485,7 @@
         </is>
       </c>
       <c r="B265" s="0">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="C265" t="inlineStr" s="0">
         <is>
@@ -4514,7 +4500,7 @@
         </is>
       </c>
       <c r="B266" s="0">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="C266" t="inlineStr" s="0">
         <is>
@@ -4529,7 +4515,7 @@
         </is>
       </c>
       <c r="B267" s="0">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="C267" t="inlineStr" s="0">
         <is>
@@ -4557,7 +4543,7 @@
     <row r="269">
       <c r="A269" t="inlineStr" s="9">
         <is>
-          <t>Smoothness Preset: Cinematic (Smoothing x0.6)</t>
+          <t>Smoothness Preset: UltraSmooth (Smoothing x0.5)</t>
         </is>
       </c>
       <c r="B269" t="inlineStr" s="9">
@@ -4595,7 +4581,7 @@
         </is>
       </c>
       <c r="B271" s="0">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="C271" t="inlineStr" s="0">
         <is>
@@ -4610,7 +4596,7 @@
         </is>
       </c>
       <c r="B272" s="0">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="C272" t="inlineStr" s="0">
         <is>
@@ -4625,7 +4611,7 @@
         </is>
       </c>
       <c r="B273" s="0">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="C273" t="inlineStr" s="0">
         <is>
@@ -4640,7 +4626,7 @@
         </is>
       </c>
       <c r="B274" s="0">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="C274" t="inlineStr" s="0">
         <is>
@@ -4655,7 +4641,7 @@
         </is>
       </c>
       <c r="B275" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C275" t="inlineStr" s="0">
         <is>
@@ -4670,7 +4656,7 @@
         </is>
       </c>
       <c r="B276" s="0">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="C276" t="inlineStr" s="0">
         <is>
@@ -4685,165 +4671,9 @@
         </is>
       </c>
       <c r="B277" s="0">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="C277" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C278" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr" s="9">
-        <is>
-          <t>Smoothness Preset: UltraSmooth (Smoothing x0.5)</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr" s="9">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C279" t="inlineStr" s="9">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr" s="4">
-        <is>
-          <t>Trigger</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr" s="4">
-        <is>
-          <t>Smoothing</t>
-        </is>
-      </c>
-      <c r="C280" t="inlineStr" s="4">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr" s="0">
-        <is>
-          <t>Basic Kill</t>
-        </is>
-      </c>
-      <c r="B281" s="0">
-        <v>4</v>
-      </c>
-      <c r="C281" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr" s="0">
-        <is>
-          <t>Critical</t>
-        </is>
-      </c>
-      <c r="B282" s="0">
-        <v>4</v>
-      </c>
-      <c r="C282" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr" s="0">
-        <is>
-          <t>Dismemberment</t>
-        </is>
-      </c>
-      <c r="B283" s="0">
-        <v>4</v>
-      </c>
-      <c r="C283" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr" s="0">
-        <is>
-          <t>Decapitation</t>
-        </is>
-      </c>
-      <c r="B284" s="0">
-        <v>3</v>
-      </c>
-      <c r="C284" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr" s="0">
-        <is>
-          <t>Parry</t>
-        </is>
-      </c>
-      <c r="B285" s="0">
-        <v>5</v>
-      </c>
-      <c r="C285" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr" s="0">
-        <is>
-          <t>Last Enemy</t>
-        </is>
-      </c>
-      <c r="B286" s="0">
-        <v>2</v>
-      </c>
-      <c r="C286" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr" s="0">
-        <is>
-          <t>Last Stand</t>
-        </is>
-      </c>
-      <c r="B287" s="0">
-        <v>2</v>
-      </c>
-      <c r="C287" t="inlineStr" s="0">
         <is>
           <t/>
         </is>
@@ -5435,7 +5265,7 @@
       </c>
       <c r="B4" t="inlineStr" s="5">
         <is>
-          <t>Chance Preset Off disables chance rolls (cooldown only). Always forces 100%.</t>
+          <t>Chance Preset Off disables chance rolls (cooldown only).</t>
         </is>
       </c>
       <c r="C4" t="inlineStr" s="5">
@@ -5736,12 +5566,12 @@
     <row r="22">
       <c r="A22" t="inlineStr" s="0">
         <is>
-          <t>Always</t>
+          <t/>
         </is>
       </c>
       <c r="B22" t="inlineStr" s="0">
         <is>
-          <t>100%</t>
+          <t/>
         </is>
       </c>
       <c r="C22" t="inlineStr" s="0">
@@ -5751,51 +5581,49 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr" s="0">
+      <c r="A23" t="inlineStr" s="7">
+        <is>
+          <t>Cooldown Presets (from Intensity Balanced)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr" s="7">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr" s="7">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr" s="7">
-        <is>
-          <t>Cooldown Presets (from Intensity Balanced)</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr" s="7">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr" s="7">
+      <c r="A24" t="inlineStr" s="4">
+        <is>
+          <t>Preset</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr" s="4">
+        <is>
+          <t>Cooldown (s)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr" s="4">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr" s="4">
-        <is>
-          <t>Preset</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr" s="4">
-        <is>
-          <t>Cooldown (s)</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr" s="4">
+      <c r="A25" t="inlineStr" s="0">
+        <is>
+          <t>Off</t>
+        </is>
+      </c>
+      <c r="B25" s="0">
+        <v>0</v>
+      </c>
+      <c r="C25" t="inlineStr" s="0">
         <is>
           <t/>
         </is>
@@ -5804,11 +5632,11 @@
     <row r="26">
       <c r="A26" t="inlineStr" s="0">
         <is>
-          <t>Off</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="B26" s="0">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="C26" t="inlineStr" s="0">
         <is>
@@ -5819,11 +5647,11 @@
     <row r="27">
       <c r="A27" t="inlineStr" s="0">
         <is>
-          <t>Short</t>
+          <t>Balanced</t>
         </is>
       </c>
       <c r="B27" s="0">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="C27" t="inlineStr" s="0">
         <is>
@@ -5834,11 +5662,11 @@
     <row r="28">
       <c r="A28" t="inlineStr" s="0">
         <is>
-          <t>Balanced</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="B28" s="0">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="C28" t="inlineStr" s="0">
         <is>
@@ -5849,11 +5677,11 @@
     <row r="29">
       <c r="A29" t="inlineStr" s="0">
         <is>
-          <t>Long</t>
+          <t>Extended</t>
         </is>
       </c>
       <c r="B29" s="0">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="C29" t="inlineStr" s="0">
         <is>
@@ -5864,11 +5692,13 @@
     <row r="30">
       <c r="A30" t="inlineStr" s="0">
         <is>
-          <t>Extended</t>
-        </is>
-      </c>
-      <c r="B30" s="0">
-        <v>10</v>
+          <t/>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="C30" t="inlineStr" s="0">
         <is>
@@ -5877,51 +5707,49 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr" s="0">
+      <c r="A31" t="inlineStr" s="8">
+        <is>
+          <t>Duration Presets (from Intensity Balanced)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr" s="8">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr" s="8">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr" s="8">
-        <is>
-          <t>Duration Presets (from Intensity Balanced)</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr" s="8">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr" s="8">
+      <c r="A32" t="inlineStr" s="4">
+        <is>
+          <t>Preset</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr" s="4">
+        <is>
+          <t>Duration (s)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr" s="4">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr" s="4">
-        <is>
-          <t>Preset</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr" s="4">
-        <is>
-          <t>Duration (s)</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr" s="4">
+      <c r="A33" t="inlineStr" s="0">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="B33" s="0">
+        <v>0.75</v>
+      </c>
+      <c r="C33" t="inlineStr" s="0">
         <is>
           <t/>
         </is>
@@ -5930,11 +5758,11 @@
     <row r="34">
       <c r="A34" t="inlineStr" s="0">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="B34" s="0">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="C34" t="inlineStr" s="0">
         <is>
@@ -5945,11 +5773,11 @@
     <row r="35">
       <c r="A35" t="inlineStr" s="0">
         <is>
-          <t>Long</t>
+          <t>Extended</t>
         </is>
       </c>
       <c r="B35" s="0">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="C35" t="inlineStr" s="0">
         <is>
@@ -5960,11 +5788,13 @@
     <row r="36">
       <c r="A36" t="inlineStr" s="0">
         <is>
-          <t>Extended</t>
-        </is>
-      </c>
-      <c r="B36" s="0">
-        <v>1.5</v>
+          <t/>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="C36" t="inlineStr" s="0">
         <is>
@@ -5973,51 +5803,49 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr" s="0">
+      <c r="A37" t="inlineStr" s="9">
+        <is>
+          <t>Smoothness Presets (from Intensity Balanced)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr" s="9">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr" s="9">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr" s="9">
-        <is>
-          <t>Smoothness Presets (from Intensity Balanced)</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr" s="9">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr" s="9">
+      <c r="A38" t="inlineStr" s="4">
+        <is>
+          <t>Preset</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr" s="4">
+        <is>
+          <t>Smoothing</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr" s="4">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr" s="4">
-        <is>
-          <t>Preset</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr" s="4">
-        <is>
-          <t>Smoothing</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr" s="4">
+      <c r="A39" t="inlineStr" s="0">
+        <is>
+          <t>VerySnappy</t>
+        </is>
+      </c>
+      <c r="B39" s="0">
+        <v>12.8</v>
+      </c>
+      <c r="C39" t="inlineStr" s="0">
         <is>
           <t/>
         </is>
@@ -6026,11 +5854,11 @@
     <row r="40">
       <c r="A40" t="inlineStr" s="0">
         <is>
-          <t>VerySnappy</t>
+          <t>Snappy</t>
         </is>
       </c>
       <c r="B40" s="0">
-        <v>12.8</v>
+        <v>10</v>
       </c>
       <c r="C40" t="inlineStr" s="0">
         <is>
@@ -6041,11 +5869,11 @@
     <row r="41">
       <c r="A41" t="inlineStr" s="0">
         <is>
-          <t>Snappy</t>
+          <t>Smooth</t>
         </is>
       </c>
       <c r="B41" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C41" t="inlineStr" s="0">
         <is>
@@ -6056,11 +5884,11 @@
     <row r="42">
       <c r="A42" t="inlineStr" s="0">
         <is>
-          <t>Smooth</t>
+          <t>Cinematic</t>
         </is>
       </c>
       <c r="B42" s="0">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="C42" t="inlineStr" s="0">
         <is>
@@ -6071,11 +5899,11 @@
     <row r="43">
       <c r="A43" t="inlineStr" s="0">
         <is>
-          <t>Cinematic</t>
+          <t>UltraSmooth</t>
         </is>
       </c>
       <c r="B43" s="0">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="C43" t="inlineStr" s="0">
         <is>
@@ -6086,11 +5914,13 @@
     <row r="44">
       <c r="A44" t="inlineStr" s="0">
         <is>
-          <t>UltraSmooth</t>
-        </is>
-      </c>
-      <c r="B44" s="0">
-        <v>4</v>
+          <t/>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="C44" t="inlineStr" s="0">
         <is>
@@ -6099,51 +5929,51 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr" s="0">
+      <c r="A45" t="inlineStr" s="12">
+        <is>
+          <t>Trigger Profiles</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr" s="12">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr" s="12">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr" s="12">
-        <is>
-          <t>Trigger Profiles</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr" s="12">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr" s="12">
+      <c r="A46" t="inlineStr" s="4">
+        <is>
+          <t>Profile</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr" s="4">
+        <is>
+          <t>Enabled</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr" s="4">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr" s="4">
-        <is>
-          <t>Profile</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr" s="4">
-        <is>
-          <t>Enabled</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr" s="4">
+      <c r="A47" t="inlineStr" s="0">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr" s="0">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr" s="0">
         <is>
           <t/>
         </is>
@@ -6152,7 +5982,7 @@
     <row r="48">
       <c r="A48" t="inlineStr" s="0">
         <is>
-          <t>All</t>
+          <t>KillsOnly</t>
         </is>
       </c>
       <c r="B48" t="inlineStr" s="0">
@@ -6169,12 +5999,12 @@
     <row r="49">
       <c r="A49" t="inlineStr" s="0">
         <is>
-          <t>KillsOnly</t>
+          <t>Highlights</t>
         </is>
       </c>
       <c r="B49" t="inlineStr" s="0">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C49" t="inlineStr" s="0">
@@ -6186,7 +6016,7 @@
     <row r="50">
       <c r="A50" t="inlineStr" s="0">
         <is>
-          <t>Highlights</t>
+          <t>LastEnemyOnly</t>
         </is>
       </c>
       <c r="B50" t="inlineStr" s="0">
@@ -6203,148 +6033,148 @@
     <row r="51">
       <c r="A51" t="inlineStr" s="0">
         <is>
-          <t>LastEnemyOnly</t>
+          <t/>
         </is>
       </c>
       <c r="B51" t="inlineStr" s="0">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr" s="11">
+        <is>
+          <t>Killcam Base Chance</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr" s="11">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr" s="11">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr" s="4">
+        <is>
+          <t>Base Killcam Chance</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr" s="4">
+        <is>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr" s="4">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr" s="11">
+        <is>
+          <t>Killcam by Third Person Distribution</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr" s="11">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr" s="11">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr" s="4">
+        <is>
+          <t>Third Person Distribution</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr" s="4">
+        <is>
+          <t>Killcam Chance</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr" s="4">
+        <is>
+          <t>Eligible</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr" s="0">
+        <is>
+          <t>First Person Only</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr" s="0">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr" s="0">
+        <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr" s="11">
-        <is>
-          <t>Killcam Base Chance</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr" s="11">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr" s="11">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr" s="4">
-        <is>
-          <t>Base Killcam Chance</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr" s="4">
-        <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr" s="4">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr" s="11">
-        <is>
-          <t>Killcam by Third Person Distribution</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr" s="11">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr" s="11">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr" s="4">
-        <is>
-          <t>Third Person Distribution</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr" s="4">
-        <is>
-          <t>Killcam Chance</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr" s="4">
-        <is>
-          <t>Eligible</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr" s="0">
         <is>
-          <t>First Person Only</t>
+          <t>Mixed (Rare Third Person)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr" s="0">
         <is>
-          <t>0%</t>
+          <t>6%</t>
         </is>
       </c>
       <c r="C58" t="inlineStr" s="0">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr" s="0">
         <is>
-          <t>Mixed (Rare Third Person)</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="B59" t="inlineStr" s="0">
         <is>
-          <t>6%</t>
+          <t>15%</t>
         </is>
       </c>
       <c r="C59" t="inlineStr" s="0">
@@ -6356,12 +6186,12 @@
     <row r="60">
       <c r="A60" t="inlineStr" s="0">
         <is>
-          <t>Mixed</t>
+          <t>Mostly Third Person</t>
         </is>
       </c>
       <c r="B60" t="inlineStr" s="0">
         <is>
-          <t>15%</t>
+          <t>21%</t>
         </is>
       </c>
       <c r="C60" t="inlineStr" s="0">
@@ -6373,32 +6203,15 @@
     <row r="61">
       <c r="A61" t="inlineStr" s="0">
         <is>
-          <t>Mostly Third Person</t>
+          <t>Third Person Only</t>
         </is>
       </c>
       <c r="B61" t="inlineStr" s="0">
         <is>
-          <t>21%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="C61" t="inlineStr" s="0">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr" s="0">
-        <is>
-          <t>Third Person Only</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr" s="0">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr" s="0">
         <is>
           <t>Yes</t>
         </is>
@@ -6475,7 +6288,7 @@
       </c>
       <c r="B4" t="inlineStr" s="5">
         <is>
-          <t>Chance Preset Off disables chance rolls (cooldown only). Always forces 100%.</t>
+          <t>Chance Preset Off disables chance rolls (cooldown only).</t>
         </is>
       </c>
       <c r="C4" t="inlineStr" s="5">
@@ -6776,12 +6589,12 @@
     <row r="22">
       <c r="A22" t="inlineStr" s="0">
         <is>
-          <t>Always</t>
+          <t/>
         </is>
       </c>
       <c r="B22" t="inlineStr" s="0">
         <is>
-          <t>100%</t>
+          <t/>
         </is>
       </c>
       <c r="C22" t="inlineStr" s="0">
@@ -6791,51 +6604,49 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr" s="0">
+      <c r="A23" t="inlineStr" s="7">
+        <is>
+          <t>Cooldown Presets (from Intensity Balanced)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr" s="7">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr" s="7">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr" s="7">
-        <is>
-          <t>Cooldown Presets (from Intensity Balanced)</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr" s="7">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr" s="7">
+      <c r="A24" t="inlineStr" s="4">
+        <is>
+          <t>Preset</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr" s="4">
+        <is>
+          <t>Cooldown (s)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr" s="4">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr" s="4">
-        <is>
-          <t>Preset</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr" s="4">
-        <is>
-          <t>Cooldown (s)</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr" s="4">
+      <c r="A25" t="inlineStr" s="0">
+        <is>
+          <t>Off</t>
+        </is>
+      </c>
+      <c r="B25" s="0">
+        <v>0</v>
+      </c>
+      <c r="C25" t="inlineStr" s="0">
         <is>
           <t/>
         </is>
@@ -6844,11 +6655,11 @@
     <row r="26">
       <c r="A26" t="inlineStr" s="0">
         <is>
-          <t>Off</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="B26" s="0">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="C26" t="inlineStr" s="0">
         <is>
@@ -6859,11 +6670,11 @@
     <row r="27">
       <c r="A27" t="inlineStr" s="0">
         <is>
-          <t>Short</t>
+          <t>Balanced</t>
         </is>
       </c>
       <c r="B27" s="0">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="C27" t="inlineStr" s="0">
         <is>
@@ -6874,11 +6685,11 @@
     <row r="28">
       <c r="A28" t="inlineStr" s="0">
         <is>
-          <t>Balanced</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="B28" s="0">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="C28" t="inlineStr" s="0">
         <is>
@@ -6889,11 +6700,11 @@
     <row r="29">
       <c r="A29" t="inlineStr" s="0">
         <is>
-          <t>Long</t>
+          <t>Extended</t>
         </is>
       </c>
       <c r="B29" s="0">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="C29" t="inlineStr" s="0">
         <is>
@@ -6904,11 +6715,13 @@
     <row r="30">
       <c r="A30" t="inlineStr" s="0">
         <is>
-          <t>Extended</t>
-        </is>
-      </c>
-      <c r="B30" s="0">
-        <v>10</v>
+          <t/>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="C30" t="inlineStr" s="0">
         <is>
@@ -6917,51 +6730,49 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr" s="0">
+      <c r="A31" t="inlineStr" s="8">
+        <is>
+          <t>Duration Presets (from Intensity Balanced)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr" s="8">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr" s="8">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr" s="8">
-        <is>
-          <t>Duration Presets (from Intensity Balanced)</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr" s="8">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr" s="8">
+      <c r="A32" t="inlineStr" s="4">
+        <is>
+          <t>Preset</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr" s="4">
+        <is>
+          <t>Duration (s)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr" s="4">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr" s="4">
-        <is>
-          <t>Preset</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr" s="4">
-        <is>
-          <t>Duration (s)</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr" s="4">
+      <c r="A33" t="inlineStr" s="0">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="B33" s="0">
+        <v>1.12</v>
+      </c>
+      <c r="C33" t="inlineStr" s="0">
         <is>
           <t/>
         </is>
@@ -6970,11 +6781,11 @@
     <row r="34">
       <c r="A34" t="inlineStr" s="0">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="B34" s="0">
-        <v>1.12</v>
+        <v>1.88</v>
       </c>
       <c r="C34" t="inlineStr" s="0">
         <is>
@@ -6985,11 +6796,11 @@
     <row r="35">
       <c r="A35" t="inlineStr" s="0">
         <is>
-          <t>Long</t>
+          <t>Extended</t>
         </is>
       </c>
       <c r="B35" s="0">
-        <v>1.88</v>
+        <v>2.25</v>
       </c>
       <c r="C35" t="inlineStr" s="0">
         <is>
@@ -7000,11 +6811,13 @@
     <row r="36">
       <c r="A36" t="inlineStr" s="0">
         <is>
-          <t>Extended</t>
-        </is>
-      </c>
-      <c r="B36" s="0">
-        <v>2.25</v>
+          <t/>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="C36" t="inlineStr" s="0">
         <is>
@@ -7013,51 +6826,49 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr" s="0">
+      <c r="A37" t="inlineStr" s="9">
+        <is>
+          <t>Smoothness Presets (from Intensity Balanced)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr" s="9">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr" s="9">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr" s="9">
-        <is>
-          <t>Smoothness Presets (from Intensity Balanced)</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr" s="9">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr" s="9">
+      <c r="A38" t="inlineStr" s="4">
+        <is>
+          <t>Preset</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr" s="4">
+        <is>
+          <t>Smoothing</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr" s="4">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr" s="4">
-        <is>
-          <t>Preset</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr" s="4">
-        <is>
-          <t>Smoothing</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr" s="4">
+      <c r="A39" t="inlineStr" s="0">
+        <is>
+          <t>VerySnappy</t>
+        </is>
+      </c>
+      <c r="B39" s="0">
+        <v>12.8</v>
+      </c>
+      <c r="C39" t="inlineStr" s="0">
         <is>
           <t/>
         </is>
@@ -7066,11 +6877,11 @@
     <row r="40">
       <c r="A40" t="inlineStr" s="0">
         <is>
-          <t>VerySnappy</t>
+          <t>Snappy</t>
         </is>
       </c>
       <c r="B40" s="0">
-        <v>12.8</v>
+        <v>10</v>
       </c>
       <c r="C40" t="inlineStr" s="0">
         <is>
@@ -7081,11 +6892,11 @@
     <row r="41">
       <c r="A41" t="inlineStr" s="0">
         <is>
-          <t>Snappy</t>
+          <t>Smooth</t>
         </is>
       </c>
       <c r="B41" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C41" t="inlineStr" s="0">
         <is>
@@ -7096,11 +6907,11 @@
     <row r="42">
       <c r="A42" t="inlineStr" s="0">
         <is>
-          <t>Smooth</t>
+          <t>Cinematic</t>
         </is>
       </c>
       <c r="B42" s="0">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="C42" t="inlineStr" s="0">
         <is>
@@ -7111,11 +6922,11 @@
     <row r="43">
       <c r="A43" t="inlineStr" s="0">
         <is>
-          <t>Cinematic</t>
+          <t>UltraSmooth</t>
         </is>
       </c>
       <c r="B43" s="0">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="C43" t="inlineStr" s="0">
         <is>
@@ -7126,11 +6937,13 @@
     <row r="44">
       <c r="A44" t="inlineStr" s="0">
         <is>
-          <t>UltraSmooth</t>
-        </is>
-      </c>
-      <c r="B44" s="0">
-        <v>4</v>
+          <t/>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="C44" t="inlineStr" s="0">
         <is>
@@ -7139,51 +6952,51 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr" s="0">
+      <c r="A45" t="inlineStr" s="12">
+        <is>
+          <t>Trigger Profiles</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr" s="12">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr" s="12">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr" s="12">
-        <is>
-          <t>Trigger Profiles</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr" s="12">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr" s="12">
+      <c r="A46" t="inlineStr" s="4">
+        <is>
+          <t>Profile</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr" s="4">
+        <is>
+          <t>Enabled</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr" s="4">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr" s="4">
-        <is>
-          <t>Profile</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr" s="4">
-        <is>
-          <t>Enabled</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr" s="4">
+      <c r="A47" t="inlineStr" s="0">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr" s="0">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr" s="0">
         <is>
           <t/>
         </is>
@@ -7192,7 +7005,7 @@
     <row r="48">
       <c r="A48" t="inlineStr" s="0">
         <is>
-          <t>All</t>
+          <t>KillsOnly</t>
         </is>
       </c>
       <c r="B48" t="inlineStr" s="0">
@@ -7209,7 +7022,7 @@
     <row r="49">
       <c r="A49" t="inlineStr" s="0">
         <is>
-          <t>KillsOnly</t>
+          <t>Highlights</t>
         </is>
       </c>
       <c r="B49" t="inlineStr" s="0">
@@ -7226,12 +7039,12 @@
     <row r="50">
       <c r="A50" t="inlineStr" s="0">
         <is>
-          <t>Highlights</t>
+          <t>LastEnemyOnly</t>
         </is>
       </c>
       <c r="B50" t="inlineStr" s="0">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C50" t="inlineStr" s="0">
@@ -7243,148 +7056,148 @@
     <row r="51">
       <c r="A51" t="inlineStr" s="0">
         <is>
-          <t>LastEnemyOnly</t>
+          <t/>
         </is>
       </c>
       <c r="B51" t="inlineStr" s="0">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr" s="11">
+        <is>
+          <t>Killcam Base Chance</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr" s="11">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr" s="11">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr" s="4">
+        <is>
+          <t>Base Killcam Chance</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr" s="4">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr" s="4">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr" s="11">
+        <is>
+          <t>Killcam by Third Person Distribution</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr" s="11">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr" s="11">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr" s="4">
+        <is>
+          <t>Third Person Distribution</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr" s="4">
+        <is>
+          <t>Killcam Chance</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr" s="4">
+        <is>
+          <t>Eligible</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr" s="0">
+        <is>
+          <t>First Person Only</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr" s="0">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr" s="0">
+        <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr" s="11">
-        <is>
-          <t>Killcam Base Chance</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr" s="11">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr" s="11">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr" s="4">
-        <is>
-          <t>Base Killcam Chance</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr" s="4">
-        <is>
-          <t>60%</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr" s="4">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr" s="11">
-        <is>
-          <t>Killcam by Third Person Distribution</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr" s="11">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr" s="11">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr" s="4">
-        <is>
-          <t>Third Person Distribution</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr" s="4">
-        <is>
-          <t>Killcam Chance</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr" s="4">
-        <is>
-          <t>Eligible</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr" s="0">
         <is>
-          <t>First Person Only</t>
+          <t>Mixed (Rare Third Person)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr" s="0">
         <is>
-          <t>0%</t>
+          <t>24%</t>
         </is>
       </c>
       <c r="C58" t="inlineStr" s="0">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr" s="0">
         <is>
-          <t>Mixed (Rare Third Person)</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="B59" t="inlineStr" s="0">
         <is>
-          <t>24%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="C59" t="inlineStr" s="0">
@@ -7396,12 +7209,12 @@
     <row r="60">
       <c r="A60" t="inlineStr" s="0">
         <is>
-          <t>Mixed</t>
+          <t>Mostly Third Person</t>
         </is>
       </c>
       <c r="B60" t="inlineStr" s="0">
         <is>
-          <t>60%</t>
+          <t>84%</t>
         </is>
       </c>
       <c r="C60" t="inlineStr" s="0">
@@ -7413,32 +7226,15 @@
     <row r="61">
       <c r="A61" t="inlineStr" s="0">
         <is>
-          <t>Mostly Third Person</t>
+          <t>Third Person Only</t>
         </is>
       </c>
       <c r="B61" t="inlineStr" s="0">
         <is>
-          <t>84%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="C61" t="inlineStr" s="0">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr" s="0">
-        <is>
-          <t>Third Person Only</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr" s="0">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr" s="0">
         <is>
           <t>Yes</t>
         </is>
@@ -7515,7 +7311,7 @@
       </c>
       <c r="B4" t="inlineStr" s="5">
         <is>
-          <t>Chance Preset Off disables chance rolls (cooldown only). Always forces 100%.</t>
+          <t>Chance Preset Off disables chance rolls (cooldown only).</t>
         </is>
       </c>
       <c r="C4" t="inlineStr" s="5">
@@ -7816,12 +7612,12 @@
     <row r="22">
       <c r="A22" t="inlineStr" s="0">
         <is>
-          <t>Always</t>
+          <t/>
         </is>
       </c>
       <c r="B22" t="inlineStr" s="0">
         <is>
-          <t>100%</t>
+          <t/>
         </is>
       </c>
       <c r="C22" t="inlineStr" s="0">
@@ -7831,51 +7627,49 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr" s="0">
+      <c r="A23" t="inlineStr" s="7">
+        <is>
+          <t>Cooldown Presets (from Intensity Balanced)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr" s="7">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr" s="7">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr" s="7">
-        <is>
-          <t>Cooldown Presets (from Intensity Balanced)</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr" s="7">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr" s="7">
+      <c r="A24" t="inlineStr" s="4">
+        <is>
+          <t>Preset</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr" s="4">
+        <is>
+          <t>Cooldown (s)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr" s="4">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr" s="4">
-        <is>
-          <t>Preset</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr" s="4">
-        <is>
-          <t>Cooldown (s)</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr" s="4">
+      <c r="A25" t="inlineStr" s="0">
+        <is>
+          <t>Off</t>
+        </is>
+      </c>
+      <c r="B25" s="0">
+        <v>0</v>
+      </c>
+      <c r="C25" t="inlineStr" s="0">
         <is>
           <t/>
         </is>
@@ -7884,11 +7678,11 @@
     <row r="26">
       <c r="A26" t="inlineStr" s="0">
         <is>
-          <t>Off</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="B26" s="0">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="C26" t="inlineStr" s="0">
         <is>
@@ -7899,11 +7693,11 @@
     <row r="27">
       <c r="A27" t="inlineStr" s="0">
         <is>
-          <t>Short</t>
+          <t>Balanced</t>
         </is>
       </c>
       <c r="B27" s="0">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="C27" t="inlineStr" s="0">
         <is>
@@ -7914,11 +7708,11 @@
     <row r="28">
       <c r="A28" t="inlineStr" s="0">
         <is>
-          <t>Balanced</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="B28" s="0">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="C28" t="inlineStr" s="0">
         <is>
@@ -7929,11 +7723,11 @@
     <row r="29">
       <c r="A29" t="inlineStr" s="0">
         <is>
-          <t>Long</t>
+          <t>Extended</t>
         </is>
       </c>
       <c r="B29" s="0">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="C29" t="inlineStr" s="0">
         <is>
@@ -7944,11 +7738,13 @@
     <row r="30">
       <c r="A30" t="inlineStr" s="0">
         <is>
-          <t>Extended</t>
-        </is>
-      </c>
-      <c r="B30" s="0">
-        <v>10</v>
+          <t/>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="C30" t="inlineStr" s="0">
         <is>
@@ -7957,51 +7753,49 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr" s="0">
+      <c r="A31" t="inlineStr" s="8">
+        <is>
+          <t>Duration Presets (from Intensity Balanced)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr" s="8">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr" s="8">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr" s="8">
-        <is>
-          <t>Duration Presets (from Intensity Balanced)</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr" s="8">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr" s="8">
+      <c r="A32" t="inlineStr" s="4">
+        <is>
+          <t>Preset</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr" s="4">
+        <is>
+          <t>Duration (s)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr" s="4">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr" s="4">
-        <is>
-          <t>Preset</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr" s="4">
-        <is>
-          <t>Duration (s)</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr" s="4">
+      <c r="A33" t="inlineStr" s="0">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="B33" s="0">
+        <v>1.12</v>
+      </c>
+      <c r="C33" t="inlineStr" s="0">
         <is>
           <t/>
         </is>
@@ -8010,11 +7804,11 @@
     <row r="34">
       <c r="A34" t="inlineStr" s="0">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="B34" s="0">
-        <v>1.12</v>
+        <v>1.88</v>
       </c>
       <c r="C34" t="inlineStr" s="0">
         <is>
@@ -8025,11 +7819,11 @@
     <row r="35">
       <c r="A35" t="inlineStr" s="0">
         <is>
-          <t>Long</t>
+          <t>Extended</t>
         </is>
       </c>
       <c r="B35" s="0">
-        <v>1.88</v>
+        <v>2.25</v>
       </c>
       <c r="C35" t="inlineStr" s="0">
         <is>
@@ -8040,11 +7834,13 @@
     <row r="36">
       <c r="A36" t="inlineStr" s="0">
         <is>
-          <t>Extended</t>
-        </is>
-      </c>
-      <c r="B36" s="0">
-        <v>2.25</v>
+          <t/>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="C36" t="inlineStr" s="0">
         <is>
@@ -8053,51 +7849,49 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr" s="0">
+      <c r="A37" t="inlineStr" s="9">
+        <is>
+          <t>Smoothness Presets (from Intensity Balanced)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr" s="9">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr" s="9">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr" s="9">
-        <is>
-          <t>Smoothness Presets (from Intensity Balanced)</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr" s="9">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr" s="9">
+      <c r="A38" t="inlineStr" s="4">
+        <is>
+          <t>Preset</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr" s="4">
+        <is>
+          <t>Smoothing</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr" s="4">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr" s="4">
-        <is>
-          <t>Preset</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr" s="4">
-        <is>
-          <t>Smoothing</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr" s="4">
+      <c r="A39" t="inlineStr" s="0">
+        <is>
+          <t>VerySnappy</t>
+        </is>
+      </c>
+      <c r="B39" s="0">
+        <v>12.8</v>
+      </c>
+      <c r="C39" t="inlineStr" s="0">
         <is>
           <t/>
         </is>
@@ -8106,11 +7900,11 @@
     <row r="40">
       <c r="A40" t="inlineStr" s="0">
         <is>
-          <t>VerySnappy</t>
+          <t>Snappy</t>
         </is>
       </c>
       <c r="B40" s="0">
-        <v>12.8</v>
+        <v>10</v>
       </c>
       <c r="C40" t="inlineStr" s="0">
         <is>
@@ -8121,11 +7915,11 @@
     <row r="41">
       <c r="A41" t="inlineStr" s="0">
         <is>
-          <t>Snappy</t>
+          <t>Smooth</t>
         </is>
       </c>
       <c r="B41" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C41" t="inlineStr" s="0">
         <is>
@@ -8136,11 +7930,11 @@
     <row r="42">
       <c r="A42" t="inlineStr" s="0">
         <is>
-          <t>Smooth</t>
+          <t>Cinematic</t>
         </is>
       </c>
       <c r="B42" s="0">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="C42" t="inlineStr" s="0">
         <is>
@@ -8151,11 +7945,11 @@
     <row r="43">
       <c r="A43" t="inlineStr" s="0">
         <is>
-          <t>Cinematic</t>
+          <t>UltraSmooth</t>
         </is>
       </c>
       <c r="B43" s="0">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="C43" t="inlineStr" s="0">
         <is>
@@ -8166,11 +7960,13 @@
     <row r="44">
       <c r="A44" t="inlineStr" s="0">
         <is>
-          <t>UltraSmooth</t>
-        </is>
-      </c>
-      <c r="B44" s="0">
-        <v>4</v>
+          <t/>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="C44" t="inlineStr" s="0">
         <is>
@@ -8179,51 +7975,51 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr" s="0">
+      <c r="A45" t="inlineStr" s="12">
+        <is>
+          <t>Trigger Profiles</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr" s="12">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr" s="12">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr" s="12">
-        <is>
-          <t>Trigger Profiles</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr" s="12">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr" s="12">
+      <c r="A46" t="inlineStr" s="4">
+        <is>
+          <t>Profile</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr" s="4">
+        <is>
+          <t>Enabled</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr" s="4">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr" s="4">
-        <is>
-          <t>Profile</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr" s="4">
-        <is>
-          <t>Enabled</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr" s="4">
+      <c r="A47" t="inlineStr" s="0">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr" s="0">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr" s="0">
         <is>
           <t/>
         </is>
@@ -8232,7 +8028,7 @@
     <row r="48">
       <c r="A48" t="inlineStr" s="0">
         <is>
-          <t>All</t>
+          <t>KillsOnly</t>
         </is>
       </c>
       <c r="B48" t="inlineStr" s="0">
@@ -8249,12 +8045,12 @@
     <row r="49">
       <c r="A49" t="inlineStr" s="0">
         <is>
-          <t>KillsOnly</t>
+          <t>Highlights</t>
         </is>
       </c>
       <c r="B49" t="inlineStr" s="0">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C49" t="inlineStr" s="0">
@@ -8266,7 +8062,7 @@
     <row r="50">
       <c r="A50" t="inlineStr" s="0">
         <is>
-          <t>Highlights</t>
+          <t>LastEnemyOnly</t>
         </is>
       </c>
       <c r="B50" t="inlineStr" s="0">
@@ -8283,148 +8079,148 @@
     <row r="51">
       <c r="A51" t="inlineStr" s="0">
         <is>
-          <t>LastEnemyOnly</t>
+          <t/>
         </is>
       </c>
       <c r="B51" t="inlineStr" s="0">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr" s="11">
+        <is>
+          <t>Killcam Base Chance</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr" s="11">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr" s="11">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr" s="4">
+        <is>
+          <t>Base Killcam Chance</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr" s="4">
+        <is>
+          <t>35%</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr" s="4">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr" s="11">
+        <is>
+          <t>Killcam by Third Person Distribution</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr" s="11">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr" s="11">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr" s="4">
+        <is>
+          <t>Third Person Distribution</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr" s="4">
+        <is>
+          <t>Killcam Chance</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr" s="4">
+        <is>
+          <t>Eligible</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr" s="0">
+        <is>
+          <t>First Person Only</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr" s="0">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr" s="0">
+        <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr" s="11">
-        <is>
-          <t>Killcam Base Chance</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr" s="11">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr" s="11">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr" s="4">
-        <is>
-          <t>Base Killcam Chance</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr" s="4">
-        <is>
-          <t>35%</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr" s="4">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr" s="11">
-        <is>
-          <t>Killcam by Third Person Distribution</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr" s="11">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr" s="11">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr" s="4">
-        <is>
-          <t>Third Person Distribution</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr" s="4">
-        <is>
-          <t>Killcam Chance</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr" s="4">
-        <is>
-          <t>Eligible</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr" s="0">
         <is>
-          <t>First Person Only</t>
+          <t>Mixed (Rare Third Person)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr" s="0">
         <is>
-          <t>0%</t>
+          <t>14%</t>
         </is>
       </c>
       <c r="C58" t="inlineStr" s="0">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr" s="0">
         <is>
-          <t>Mixed (Rare Third Person)</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="B59" t="inlineStr" s="0">
         <is>
-          <t>14%</t>
+          <t>35%</t>
         </is>
       </c>
       <c r="C59" t="inlineStr" s="0">
@@ -8436,12 +8232,12 @@
     <row r="60">
       <c r="A60" t="inlineStr" s="0">
         <is>
-          <t>Mixed</t>
+          <t>Mostly Third Person</t>
         </is>
       </c>
       <c r="B60" t="inlineStr" s="0">
         <is>
-          <t>35%</t>
+          <t>49%</t>
         </is>
       </c>
       <c r="C60" t="inlineStr" s="0">
@@ -8453,32 +8249,15 @@
     <row r="61">
       <c r="A61" t="inlineStr" s="0">
         <is>
-          <t>Mostly Third Person</t>
+          <t>Third Person Only</t>
         </is>
       </c>
       <c r="B61" t="inlineStr" s="0">
         <is>
-          <t>49%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="C61" t="inlineStr" s="0">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr" s="0">
-        <is>
-          <t>Third Person Only</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr" s="0">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr" s="0">
         <is>
           <t>Yes</t>
         </is>
@@ -8555,7 +8334,7 @@
       </c>
       <c r="B4" t="inlineStr" s="5">
         <is>
-          <t>Chance Preset Off disables chance rolls (cooldown only). Always forces 100%.</t>
+          <t>Chance Preset Off disables chance rolls (cooldown only).</t>
         </is>
       </c>
       <c r="C4" t="inlineStr" s="5">
@@ -8856,12 +8635,12 @@
     <row r="22">
       <c r="A22" t="inlineStr" s="0">
         <is>
-          <t>Always</t>
+          <t/>
         </is>
       </c>
       <c r="B22" t="inlineStr" s="0">
         <is>
-          <t>100%</t>
+          <t/>
         </is>
       </c>
       <c r="C22" t="inlineStr" s="0">
@@ -8871,51 +8650,49 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr" s="0">
+      <c r="A23" t="inlineStr" s="7">
+        <is>
+          <t>Cooldown Presets (from Intensity Balanced)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr" s="7">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr" s="7">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr" s="7">
-        <is>
-          <t>Cooldown Presets (from Intensity Balanced)</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr" s="7">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr" s="7">
+      <c r="A24" t="inlineStr" s="4">
+        <is>
+          <t>Preset</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr" s="4">
+        <is>
+          <t>Cooldown (s)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr" s="4">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr" s="4">
-        <is>
-          <t>Preset</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr" s="4">
-        <is>
-          <t>Cooldown (s)</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr" s="4">
+      <c r="A25" t="inlineStr" s="0">
+        <is>
+          <t>Off</t>
+        </is>
+      </c>
+      <c r="B25" s="0">
+        <v>0</v>
+      </c>
+      <c r="C25" t="inlineStr" s="0">
         <is>
           <t/>
         </is>
@@ -8924,11 +8701,11 @@
     <row r="26">
       <c r="A26" t="inlineStr" s="0">
         <is>
-          <t>Off</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="B26" s="0">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="C26" t="inlineStr" s="0">
         <is>
@@ -8939,11 +8716,11 @@
     <row r="27">
       <c r="A27" t="inlineStr" s="0">
         <is>
-          <t>Short</t>
+          <t>Balanced</t>
         </is>
       </c>
       <c r="B27" s="0">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="C27" t="inlineStr" s="0">
         <is>
@@ -8954,11 +8731,11 @@
     <row r="28">
       <c r="A28" t="inlineStr" s="0">
         <is>
-          <t>Balanced</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="B28" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C28" t="inlineStr" s="0">
         <is>
@@ -8969,11 +8746,11 @@
     <row r="29">
       <c r="A29" t="inlineStr" s="0">
         <is>
-          <t>Long</t>
+          <t>Extended</t>
         </is>
       </c>
       <c r="B29" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C29" t="inlineStr" s="0">
         <is>
@@ -8984,11 +8761,13 @@
     <row r="30">
       <c r="A30" t="inlineStr" s="0">
         <is>
-          <t>Extended</t>
-        </is>
-      </c>
-      <c r="B30" s="0">
-        <v>8</v>
+          <t/>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="C30" t="inlineStr" s="0">
         <is>
@@ -8997,51 +8776,49 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr" s="0">
+      <c r="A31" t="inlineStr" s="8">
+        <is>
+          <t>Duration Presets (from Intensity Balanced)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr" s="8">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr" s="8">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr" s="8">
-        <is>
-          <t>Duration Presets (from Intensity Balanced)</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr" s="8">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr" s="8">
+      <c r="A32" t="inlineStr" s="4">
+        <is>
+          <t>Preset</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr" s="4">
+        <is>
+          <t>Duration (s)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr" s="4">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr" s="4">
-        <is>
-          <t>Preset</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr" s="4">
-        <is>
-          <t>Duration (s)</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr" s="4">
+      <c r="A33" t="inlineStr" s="0">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="B33" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="C33" t="inlineStr" s="0">
         <is>
           <t/>
         </is>
@@ -9050,11 +8827,11 @@
     <row r="34">
       <c r="A34" t="inlineStr" s="0">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="B34" s="0">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="C34" t="inlineStr" s="0">
         <is>
@@ -9065,11 +8842,11 @@
     <row r="35">
       <c r="A35" t="inlineStr" s="0">
         <is>
-          <t>Long</t>
+          <t>Extended</t>
         </is>
       </c>
       <c r="B35" s="0">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="C35" t="inlineStr" s="0">
         <is>
@@ -9080,11 +8857,13 @@
     <row r="36">
       <c r="A36" t="inlineStr" s="0">
         <is>
-          <t>Extended</t>
-        </is>
-      </c>
-      <c r="B36" s="0">
-        <v>3</v>
+          <t/>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="C36" t="inlineStr" s="0">
         <is>
@@ -9093,51 +8872,49 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr" s="0">
+      <c r="A37" t="inlineStr" s="9">
+        <is>
+          <t>Smoothness Presets (from Intensity Balanced)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr" s="9">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr" s="9">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr" s="9">
-        <is>
-          <t>Smoothness Presets (from Intensity Balanced)</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr" s="9">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr" s="9">
+      <c r="A38" t="inlineStr" s="4">
+        <is>
+          <t>Preset</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr" s="4">
+        <is>
+          <t>Smoothing</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr" s="4">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr" s="4">
-        <is>
-          <t>Preset</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr" s="4">
-        <is>
-          <t>Smoothing</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr" s="4">
+      <c r="A39" t="inlineStr" s="0">
+        <is>
+          <t>VerySnappy</t>
+        </is>
+      </c>
+      <c r="B39" s="0">
+        <v>9.6</v>
+      </c>
+      <c r="C39" t="inlineStr" s="0">
         <is>
           <t/>
         </is>
@@ -9146,11 +8923,11 @@
     <row r="40">
       <c r="A40" t="inlineStr" s="0">
         <is>
-          <t>VerySnappy</t>
+          <t>Snappy</t>
         </is>
       </c>
       <c r="B40" s="0">
-        <v>9.6</v>
+        <v>7.5</v>
       </c>
       <c r="C40" t="inlineStr" s="0">
         <is>
@@ -9161,11 +8938,11 @@
     <row r="41">
       <c r="A41" t="inlineStr" s="0">
         <is>
-          <t>Snappy</t>
+          <t>Smooth</t>
         </is>
       </c>
       <c r="B41" s="0">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="C41" t="inlineStr" s="0">
         <is>
@@ -9176,11 +8953,11 @@
     <row r="42">
       <c r="A42" t="inlineStr" s="0">
         <is>
-          <t>Smooth</t>
+          <t>Cinematic</t>
         </is>
       </c>
       <c r="B42" s="0">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="C42" t="inlineStr" s="0">
         <is>
@@ -9191,11 +8968,11 @@
     <row r="43">
       <c r="A43" t="inlineStr" s="0">
         <is>
-          <t>Cinematic</t>
+          <t>UltraSmooth</t>
         </is>
       </c>
       <c r="B43" s="0">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="C43" t="inlineStr" s="0">
         <is>
@@ -9206,11 +8983,13 @@
     <row r="44">
       <c r="A44" t="inlineStr" s="0">
         <is>
-          <t>UltraSmooth</t>
-        </is>
-      </c>
-      <c r="B44" s="0">
-        <v>3</v>
+          <t/>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="C44" t="inlineStr" s="0">
         <is>
@@ -9219,51 +8998,51 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr" s="0">
+      <c r="A45" t="inlineStr" s="12">
+        <is>
+          <t>Trigger Profiles</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr" s="12">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr" s="12">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr" s="12">
-        <is>
-          <t>Trigger Profiles</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr" s="12">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr" s="12">
+      <c r="A46" t="inlineStr" s="4">
+        <is>
+          <t>Profile</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr" s="4">
+        <is>
+          <t>Enabled</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr" s="4">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr" s="4">
-        <is>
-          <t>Profile</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr" s="4">
-        <is>
-          <t>Enabled</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr" s="4">
+      <c r="A47" t="inlineStr" s="0">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr" s="0">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr" s="0">
         <is>
           <t/>
         </is>
@@ -9272,7 +9051,7 @@
     <row r="48">
       <c r="A48" t="inlineStr" s="0">
         <is>
-          <t>All</t>
+          <t>KillsOnly</t>
         </is>
       </c>
       <c r="B48" t="inlineStr" s="0">
@@ -9289,7 +9068,7 @@
     <row r="49">
       <c r="A49" t="inlineStr" s="0">
         <is>
-          <t>KillsOnly</t>
+          <t>Highlights</t>
         </is>
       </c>
       <c r="B49" t="inlineStr" s="0">
@@ -9306,12 +9085,12 @@
     <row r="50">
       <c r="A50" t="inlineStr" s="0">
         <is>
-          <t>Highlights</t>
+          <t>LastEnemyOnly</t>
         </is>
       </c>
       <c r="B50" t="inlineStr" s="0">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C50" t="inlineStr" s="0">
@@ -9323,148 +9102,148 @@
     <row r="51">
       <c r="A51" t="inlineStr" s="0">
         <is>
-          <t>LastEnemyOnly</t>
+          <t/>
         </is>
       </c>
       <c r="B51" t="inlineStr" s="0">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr" s="11">
+        <is>
+          <t>Killcam Base Chance</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr" s="11">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr" s="11">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr" s="4">
+        <is>
+          <t>Base Killcam Chance</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr" s="4">
+        <is>
+          <t>90%</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr" s="4">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr" s="11">
+        <is>
+          <t>Killcam by Third Person Distribution</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr" s="11">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr" s="11">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr" s="4">
+        <is>
+          <t>Third Person Distribution</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr" s="4">
+        <is>
+          <t>Killcam Chance</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr" s="4">
+        <is>
+          <t>Eligible</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr" s="0">
+        <is>
+          <t>First Person Only</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr" s="0">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr" s="0">
+        <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr" s="11">
-        <is>
-          <t>Killcam Base Chance</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr" s="11">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr" s="11">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr" s="4">
-        <is>
-          <t>Base Killcam Chance</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr" s="4">
-        <is>
-          <t>90%</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr" s="4">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr" s="11">
-        <is>
-          <t>Killcam by Third Person Distribution</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr" s="11">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr" s="11">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr" s="4">
-        <is>
-          <t>Third Person Distribution</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr" s="4">
-        <is>
-          <t>Killcam Chance</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr" s="4">
-        <is>
-          <t>Eligible</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr" s="0">
         <is>
-          <t>First Person Only</t>
+          <t>Mixed (Rare Third Person)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr" s="0">
         <is>
-          <t>0%</t>
+          <t>36%</t>
         </is>
       </c>
       <c r="C58" t="inlineStr" s="0">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr" s="0">
         <is>
-          <t>Mixed (Rare Third Person)</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="B59" t="inlineStr" s="0">
         <is>
-          <t>36%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="C59" t="inlineStr" s="0">
@@ -9476,12 +9255,12 @@
     <row r="60">
       <c r="A60" t="inlineStr" s="0">
         <is>
-          <t>Mixed</t>
+          <t>Mostly Third Person</t>
         </is>
       </c>
       <c r="B60" t="inlineStr" s="0">
         <is>
-          <t>90%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="C60" t="inlineStr" s="0">
@@ -9493,7 +9272,7 @@
     <row r="61">
       <c r="A61" t="inlineStr" s="0">
         <is>
-          <t>Mostly Third Person</t>
+          <t>Third Person Only</t>
         </is>
       </c>
       <c r="B61" t="inlineStr" s="0">
@@ -9502,23 +9281,6 @@
         </is>
       </c>
       <c r="C61" t="inlineStr" s="0">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr" s="0">
-        <is>
-          <t>Third Person Only</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr" s="0">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr" s="0">
         <is>
           <t>Yes</t>
         </is>
@@ -9595,7 +9357,7 @@
       </c>
       <c r="B4" t="inlineStr" s="5">
         <is>
-          <t>Chance Preset Off disables chance rolls (cooldown only). Always forces 100%.</t>
+          <t>Chance Preset Off disables chance rolls (cooldown only).</t>
         </is>
       </c>
       <c r="C4" t="inlineStr" s="5">
@@ -9896,12 +9658,12 @@
     <row r="22">
       <c r="A22" t="inlineStr" s="0">
         <is>
-          <t>Always</t>
+          <t/>
         </is>
       </c>
       <c r="B22" t="inlineStr" s="0">
         <is>
-          <t>100%</t>
+          <t/>
         </is>
       </c>
       <c r="C22" t="inlineStr" s="0">
@@ -9911,51 +9673,49 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr" s="0">
+      <c r="A23" t="inlineStr" s="7">
+        <is>
+          <t>Cooldown Presets (from Intensity Balanced)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr" s="7">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr" s="7">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr" s="7">
-        <is>
-          <t>Cooldown Presets (from Intensity Balanced)</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr" s="7">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr" s="7">
+      <c r="A24" t="inlineStr" s="4">
+        <is>
+          <t>Preset</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr" s="4">
+        <is>
+          <t>Cooldown (s)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr" s="4">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr" s="4">
-        <is>
-          <t>Preset</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr" s="4">
-        <is>
-          <t>Cooldown (s)</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr" s="4">
+      <c r="A25" t="inlineStr" s="0">
+        <is>
+          <t>Off</t>
+        </is>
+      </c>
+      <c r="B25" s="0">
+        <v>0</v>
+      </c>
+      <c r="C25" t="inlineStr" s="0">
         <is>
           <t/>
         </is>
@@ -9964,11 +9724,11 @@
     <row r="26">
       <c r="A26" t="inlineStr" s="0">
         <is>
-          <t>Off</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="B26" s="0">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="C26" t="inlineStr" s="0">
         <is>
@@ -9979,11 +9739,11 @@
     <row r="27">
       <c r="A27" t="inlineStr" s="0">
         <is>
-          <t>Short</t>
+          <t>Balanced</t>
         </is>
       </c>
       <c r="B27" s="0">
-        <v>4.9</v>
+        <v>7</v>
       </c>
       <c r="C27" t="inlineStr" s="0">
         <is>
@@ -9994,11 +9754,11 @@
     <row r="28">
       <c r="A28" t="inlineStr" s="0">
         <is>
-          <t>Balanced</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="B28" s="0">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="C28" t="inlineStr" s="0">
         <is>
@@ -10009,11 +9769,11 @@
     <row r="29">
       <c r="A29" t="inlineStr" s="0">
         <is>
-          <t>Long</t>
+          <t>Extended</t>
         </is>
       </c>
       <c r="B29" s="0">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="C29" t="inlineStr" s="0">
         <is>
@@ -10024,11 +9784,13 @@
     <row r="30">
       <c r="A30" t="inlineStr" s="0">
         <is>
-          <t>Extended</t>
-        </is>
-      </c>
-      <c r="B30" s="0">
-        <v>14</v>
+          <t/>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="C30" t="inlineStr" s="0">
         <is>
@@ -10037,51 +9799,49 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr" s="0">
+      <c r="A31" t="inlineStr" s="8">
+        <is>
+          <t>Duration Presets (from Intensity Balanced)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr" s="8">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr" s="8">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr" s="8">
-        <is>
-          <t>Duration Presets (from Intensity Balanced)</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr" s="8">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr" s="8">
+      <c r="A32" t="inlineStr" s="4">
+        <is>
+          <t>Preset</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr" s="4">
+        <is>
+          <t>Duration (s)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr" s="4">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr" s="4">
-        <is>
-          <t>Preset</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr" s="4">
-        <is>
-          <t>Duration (s)</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr" s="4">
+      <c r="A33" t="inlineStr" s="0">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="B33" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="C33" t="inlineStr" s="0">
         <is>
           <t/>
         </is>
@@ -10090,11 +9850,11 @@
     <row r="34">
       <c r="A34" t="inlineStr" s="0">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="B34" s="0">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="C34" t="inlineStr" s="0">
         <is>
@@ -10105,11 +9865,11 @@
     <row r="35">
       <c r="A35" t="inlineStr" s="0">
         <is>
-          <t>Long</t>
+          <t>Extended</t>
         </is>
       </c>
       <c r="B35" s="0">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="C35" t="inlineStr" s="0">
         <is>
@@ -10120,11 +9880,13 @@
     <row r="36">
       <c r="A36" t="inlineStr" s="0">
         <is>
-          <t>Extended</t>
-        </is>
-      </c>
-      <c r="B36" s="0">
-        <v>1.8</v>
+          <t/>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="C36" t="inlineStr" s="0">
         <is>
@@ -10133,51 +9895,49 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr" s="0">
+      <c r="A37" t="inlineStr" s="9">
+        <is>
+          <t>Smoothness Presets (from Intensity Balanced)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr" s="9">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr" s="9">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr" s="9">
-        <is>
-          <t>Smoothness Presets (from Intensity Balanced)</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr" s="9">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr" s="9">
+      <c r="A38" t="inlineStr" s="4">
+        <is>
+          <t>Preset</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr" s="4">
+        <is>
+          <t>Smoothing</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr" s="4">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr" s="4">
-        <is>
-          <t>Preset</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr" s="4">
-        <is>
-          <t>Smoothing</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr" s="4">
+      <c r="A39" t="inlineStr" s="0">
+        <is>
+          <t>VerySnappy</t>
+        </is>
+      </c>
+      <c r="B39" s="0">
+        <v>16</v>
+      </c>
+      <c r="C39" t="inlineStr" s="0">
         <is>
           <t/>
         </is>
@@ -10186,11 +9946,11 @@
     <row r="40">
       <c r="A40" t="inlineStr" s="0">
         <is>
-          <t>VerySnappy</t>
+          <t>Snappy</t>
         </is>
       </c>
       <c r="B40" s="0">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="C40" t="inlineStr" s="0">
         <is>
@@ -10201,11 +9961,11 @@
     <row r="41">
       <c r="A41" t="inlineStr" s="0">
         <is>
-          <t>Snappy</t>
+          <t>Smooth</t>
         </is>
       </c>
       <c r="B41" s="0">
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="C41" t="inlineStr" s="0">
         <is>
@@ -10216,11 +9976,11 @@
     <row r="42">
       <c r="A42" t="inlineStr" s="0">
         <is>
-          <t>Smooth</t>
+          <t>Cinematic</t>
         </is>
       </c>
       <c r="B42" s="0">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="C42" t="inlineStr" s="0">
         <is>
@@ -10231,11 +9991,11 @@
     <row r="43">
       <c r="A43" t="inlineStr" s="0">
         <is>
-          <t>Cinematic</t>
+          <t>UltraSmooth</t>
         </is>
       </c>
       <c r="B43" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43" t="inlineStr" s="0">
         <is>
@@ -10246,11 +10006,13 @@
     <row r="44">
       <c r="A44" t="inlineStr" s="0">
         <is>
-          <t>UltraSmooth</t>
-        </is>
-      </c>
-      <c r="B44" s="0">
-        <v>5</v>
+          <t/>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="C44" t="inlineStr" s="0">
         <is>
@@ -10259,51 +10021,51 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr" s="0">
+      <c r="A45" t="inlineStr" s="12">
+        <is>
+          <t>Trigger Profiles</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr" s="12">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr" s="12">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr" s="12">
-        <is>
-          <t>Trigger Profiles</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr" s="12">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr" s="12">
+      <c r="A46" t="inlineStr" s="4">
+        <is>
+          <t>Profile</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr" s="4">
+        <is>
+          <t>Enabled</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr" s="4">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr" s="4">
-        <is>
-          <t>Profile</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr" s="4">
-        <is>
-          <t>Enabled</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr" s="4">
+      <c r="A47" t="inlineStr" s="0">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr" s="0">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr" s="0">
         <is>
           <t/>
         </is>
@@ -10312,12 +10074,12 @@
     <row r="48">
       <c r="A48" t="inlineStr" s="0">
         <is>
-          <t>All</t>
+          <t>KillsOnly</t>
         </is>
       </c>
       <c r="B48" t="inlineStr" s="0">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C48" t="inlineStr" s="0">
@@ -10329,7 +10091,7 @@
     <row r="49">
       <c r="A49" t="inlineStr" s="0">
         <is>
-          <t>KillsOnly</t>
+          <t>Highlights</t>
         </is>
       </c>
       <c r="B49" t="inlineStr" s="0">
@@ -10346,7 +10108,7 @@
     <row r="50">
       <c r="A50" t="inlineStr" s="0">
         <is>
-          <t>Highlights</t>
+          <t>LastEnemyOnly</t>
         </is>
       </c>
       <c r="B50" t="inlineStr" s="0">
@@ -10363,148 +10125,148 @@
     <row r="51">
       <c r="A51" t="inlineStr" s="0">
         <is>
-          <t>LastEnemyOnly</t>
+          <t/>
         </is>
       </c>
       <c r="B51" t="inlineStr" s="0">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr" s="11">
+        <is>
+          <t>Killcam Base Chance</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr" s="11">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr" s="11">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr" s="4">
+        <is>
+          <t>Base Killcam Chance</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr" s="4">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr" s="4">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr" s="11">
+        <is>
+          <t>Killcam by Third Person Distribution</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr" s="11">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr" s="11">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr" s="4">
+        <is>
+          <t>Third Person Distribution</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr" s="4">
+        <is>
+          <t>Killcam Chance</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr" s="4">
+        <is>
+          <t>Eligible</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr" s="0">
+        <is>
+          <t>First Person Only</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr" s="0">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr" s="0">
+        <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr" s="11">
-        <is>
-          <t>Killcam Base Chance</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr" s="11">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr" s="11">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr" s="4">
-        <is>
-          <t>Base Killcam Chance</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr" s="4">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr" s="4">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr" s="11">
-        <is>
-          <t>Killcam by Third Person Distribution</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr" s="11">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr" s="11">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr" s="4">
-        <is>
-          <t>Third Person Distribution</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr" s="4">
-        <is>
-          <t>Killcam Chance</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr" s="4">
-        <is>
-          <t>Eligible</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr" s="0">
         <is>
-          <t>First Person Only</t>
+          <t>Mixed (Rare Third Person)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr" s="0">
         <is>
-          <t>0%</t>
+          <t>8%</t>
         </is>
       </c>
       <c r="C58" t="inlineStr" s="0">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr" s="0">
         <is>
-          <t>Mixed (Rare Third Person)</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="B59" t="inlineStr" s="0">
         <is>
-          <t>8%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="C59" t="inlineStr" s="0">
@@ -10516,12 +10278,12 @@
     <row r="60">
       <c r="A60" t="inlineStr" s="0">
         <is>
-          <t>Mixed</t>
+          <t>Mostly Third Person</t>
         </is>
       </c>
       <c r="B60" t="inlineStr" s="0">
         <is>
-          <t>20%</t>
+          <t>28%</t>
         </is>
       </c>
       <c r="C60" t="inlineStr" s="0">
@@ -10533,32 +10295,15 @@
     <row r="61">
       <c r="A61" t="inlineStr" s="0">
         <is>
-          <t>Mostly Third Person</t>
+          <t>Third Person Only</t>
         </is>
       </c>
       <c r="B61" t="inlineStr" s="0">
         <is>
-          <t>28%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="C61" t="inlineStr" s="0">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr" s="0">
-        <is>
-          <t>Third Person Only</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr" s="0">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr" s="0">
         <is>
           <t>Yes</t>
         </is>
@@ -10635,7 +10380,7 @@
       </c>
       <c r="B4" t="inlineStr" s="5">
         <is>
-          <t>Chance Preset Off disables chance rolls (cooldown only). Always forces 100%.</t>
+          <t>Chance Preset Off disables chance rolls (cooldown only).</t>
         </is>
       </c>
       <c r="C4" t="inlineStr" s="5">
@@ -10936,12 +10681,12 @@
     <row r="22">
       <c r="A22" t="inlineStr" s="0">
         <is>
-          <t>Always</t>
+          <t/>
         </is>
       </c>
       <c r="B22" t="inlineStr" s="0">
         <is>
-          <t>100%</t>
+          <t/>
         </is>
       </c>
       <c r="C22" t="inlineStr" s="0">
@@ -10951,51 +10696,49 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr" s="0">
+      <c r="A23" t="inlineStr" s="7">
+        <is>
+          <t>Cooldown Presets (from Intensity Balanced)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr" s="7">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr" s="7">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr" s="7">
-        <is>
-          <t>Cooldown Presets (from Intensity Balanced)</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr" s="7">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr" s="7">
+      <c r="A24" t="inlineStr" s="4">
+        <is>
+          <t>Preset</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr" s="4">
+        <is>
+          <t>Cooldown (s)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr" s="4">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr" s="4">
-        <is>
-          <t>Preset</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr" s="4">
-        <is>
-          <t>Cooldown (s)</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr" s="4">
+      <c r="A25" t="inlineStr" s="0">
+        <is>
+          <t>Off</t>
+        </is>
+      </c>
+      <c r="B25" s="0">
+        <v>0</v>
+      </c>
+      <c r="C25" t="inlineStr" s="0">
         <is>
           <t/>
         </is>
@@ -11004,7 +10747,7 @@
     <row r="26">
       <c r="A26" t="inlineStr" s="0">
         <is>
-          <t>Off</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="B26" s="0">
@@ -11019,7 +10762,7 @@
     <row r="27">
       <c r="A27" t="inlineStr" s="0">
         <is>
-          <t>Short</t>
+          <t>Balanced</t>
         </is>
       </c>
       <c r="B27" s="0">
@@ -11034,7 +10777,7 @@
     <row r="28">
       <c r="A28" t="inlineStr" s="0">
         <is>
-          <t>Balanced</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="B28" s="0">
@@ -11049,7 +10792,7 @@
     <row r="29">
       <c r="A29" t="inlineStr" s="0">
         <is>
-          <t>Long</t>
+          <t>Extended</t>
         </is>
       </c>
       <c r="B29" s="0">
@@ -11064,11 +10807,13 @@
     <row r="30">
       <c r="A30" t="inlineStr" s="0">
         <is>
-          <t>Extended</t>
-        </is>
-      </c>
-      <c r="B30" s="0">
-        <v>0</v>
+          <t/>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="C30" t="inlineStr" s="0">
         <is>
@@ -11077,51 +10822,49 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr" s="0">
+      <c r="A31" t="inlineStr" s="8">
+        <is>
+          <t>Duration Presets (from Intensity Balanced)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr" s="8">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr" s="8">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr" s="8">
-        <is>
-          <t>Duration Presets (from Intensity Balanced)</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr" s="8">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr" s="8">
+      <c r="A32" t="inlineStr" s="4">
+        <is>
+          <t>Preset</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr" s="4">
+        <is>
+          <t>Duration (s)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr" s="4">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr" s="4">
-        <is>
-          <t>Preset</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr" s="4">
-        <is>
-          <t>Duration (s)</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr" s="4">
+      <c r="A33" t="inlineStr" s="0">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="B33" s="0">
+        <v>2.25</v>
+      </c>
+      <c r="C33" t="inlineStr" s="0">
         <is>
           <t/>
         </is>
@@ -11130,11 +10873,11 @@
     <row r="34">
       <c r="A34" t="inlineStr" s="0">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="B34" s="0">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="C34" t="inlineStr" s="0">
         <is>
@@ -11145,11 +10888,11 @@
     <row r="35">
       <c r="A35" t="inlineStr" s="0">
         <is>
-          <t>Long</t>
+          <t>Extended</t>
         </is>
       </c>
       <c r="B35" s="0">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="C35" t="inlineStr" s="0">
         <is>
@@ -11160,11 +10903,13 @@
     <row r="36">
       <c r="A36" t="inlineStr" s="0">
         <is>
-          <t>Extended</t>
-        </is>
-      </c>
-      <c r="B36" s="0">
-        <v>4.5</v>
+          <t/>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="C36" t="inlineStr" s="0">
         <is>
@@ -11173,51 +10918,49 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr" s="0">
+      <c r="A37" t="inlineStr" s="9">
+        <is>
+          <t>Smoothness Presets (from Intensity Balanced)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr" s="9">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr" s="9">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr" s="9">
-        <is>
-          <t>Smoothness Presets (from Intensity Balanced)</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr" s="9">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr" s="9">
+      <c r="A38" t="inlineStr" s="4">
+        <is>
+          <t>Preset</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr" s="4">
+        <is>
+          <t>Smoothing</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr" s="4">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr" s="4">
-        <is>
-          <t>Preset</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr" s="4">
-        <is>
-          <t>Smoothing</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr" s="4">
+      <c r="A39" t="inlineStr" s="0">
+        <is>
+          <t>VerySnappy</t>
+        </is>
+      </c>
+      <c r="B39" s="0">
+        <v>6.4</v>
+      </c>
+      <c r="C39" t="inlineStr" s="0">
         <is>
           <t/>
         </is>
@@ -11226,11 +10969,11 @@
     <row r="40">
       <c r="A40" t="inlineStr" s="0">
         <is>
-          <t>VerySnappy</t>
+          <t>Snappy</t>
         </is>
       </c>
       <c r="B40" s="0">
-        <v>6.4</v>
+        <v>5</v>
       </c>
       <c r="C40" t="inlineStr" s="0">
         <is>
@@ -11241,11 +10984,11 @@
     <row r="41">
       <c r="A41" t="inlineStr" s="0">
         <is>
-          <t>Snappy</t>
+          <t>Smooth</t>
         </is>
       </c>
       <c r="B41" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C41" t="inlineStr" s="0">
         <is>
@@ -11256,11 +10999,11 @@
     <row r="42">
       <c r="A42" t="inlineStr" s="0">
         <is>
-          <t>Smooth</t>
+          <t>Cinematic</t>
         </is>
       </c>
       <c r="B42" s="0">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="C42" t="inlineStr" s="0">
         <is>
@@ -11271,11 +11014,11 @@
     <row r="43">
       <c r="A43" t="inlineStr" s="0">
         <is>
-          <t>Cinematic</t>
+          <t>UltraSmooth</t>
         </is>
       </c>
       <c r="B43" s="0">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="C43" t="inlineStr" s="0">
         <is>
@@ -11286,11 +11029,13 @@
     <row r="44">
       <c r="A44" t="inlineStr" s="0">
         <is>
-          <t>UltraSmooth</t>
-        </is>
-      </c>
-      <c r="B44" s="0">
-        <v>2</v>
+          <t/>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="C44" t="inlineStr" s="0">
         <is>
@@ -11299,51 +11044,51 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr" s="0">
+      <c r="A45" t="inlineStr" s="12">
+        <is>
+          <t>Trigger Profiles</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr" s="12">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr" s="12">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr" s="12">
-        <is>
-          <t>Trigger Profiles</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr" s="12">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr" s="12">
+      <c r="A46" t="inlineStr" s="4">
+        <is>
+          <t>Profile</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr" s="4">
+        <is>
+          <t>Enabled</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr" s="4">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr" s="4">
-        <is>
-          <t>Profile</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr" s="4">
-        <is>
-          <t>Enabled</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr" s="4">
+      <c r="A47" t="inlineStr" s="0">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr" s="0">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr" s="0">
         <is>
           <t/>
         </is>
@@ -11352,7 +11097,7 @@
     <row r="48">
       <c r="A48" t="inlineStr" s="0">
         <is>
-          <t>All</t>
+          <t>KillsOnly</t>
         </is>
       </c>
       <c r="B48" t="inlineStr" s="0">
@@ -11369,7 +11114,7 @@
     <row r="49">
       <c r="A49" t="inlineStr" s="0">
         <is>
-          <t>KillsOnly</t>
+          <t>Highlights</t>
         </is>
       </c>
       <c r="B49" t="inlineStr" s="0">
@@ -11386,7 +11131,7 @@
     <row r="50">
       <c r="A50" t="inlineStr" s="0">
         <is>
-          <t>Highlights</t>
+          <t>LastEnemyOnly</t>
         </is>
       </c>
       <c r="B50" t="inlineStr" s="0">
@@ -11403,12 +11148,12 @@
     <row r="51">
       <c r="A51" t="inlineStr" s="0">
         <is>
-          <t>LastEnemyOnly</t>
+          <t/>
         </is>
       </c>
       <c r="B51" t="inlineStr" s="0">
         <is>
-          <t>Yes</t>
+          <t/>
         </is>
       </c>
       <c r="C51" t="inlineStr" s="0">
@@ -11418,133 +11163,133 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr" s="0">
+      <c r="A52" t="inlineStr" s="11">
+        <is>
+          <t>Killcam Base Chance</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr" s="11">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr" s="11">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr" s="11">
-        <is>
-          <t>Killcam Base Chance</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr" s="11">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr" s="11">
+      <c r="A53" t="inlineStr" s="4">
+        <is>
+          <t>Base Killcam Chance</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr" s="4">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr" s="4">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr" s="4">
-        <is>
-          <t>Base Killcam Chance</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr" s="4">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr" s="4">
+      <c r="A54" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr" s="0">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr" s="0">
+      <c r="A55" t="inlineStr" s="11">
+        <is>
+          <t>Killcam by Third Person Distribution</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr" s="11">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr" s="11">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr" s="11">
-        <is>
-          <t>Killcam by Third Person Distribution</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr" s="11">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr" s="11">
-        <is>
-          <t/>
+      <c r="A56" t="inlineStr" s="4">
+        <is>
+          <t>Third Person Distribution</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr" s="4">
+        <is>
+          <t>Killcam Chance</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr" s="4">
+        <is>
+          <t>Eligible</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr" s="4">
-        <is>
-          <t>Third Person Distribution</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr" s="4">
-        <is>
-          <t>Killcam Chance</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr" s="4">
-        <is>
-          <t>Eligible</t>
+      <c r="A57" t="inlineStr" s="0">
+        <is>
+          <t>First Person Only</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr" s="0">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr" s="0">
+        <is>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr" s="0">
         <is>
-          <t>First Person Only</t>
+          <t>Mixed (Rare Third Person)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr" s="0">
         <is>
-          <t>0%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="C58" t="inlineStr" s="0">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr" s="0">
         <is>
-          <t>Mixed (Rare Third Person)</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="B59" t="inlineStr" s="0">
         <is>
-          <t>40%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="C59" t="inlineStr" s="0">
@@ -11556,7 +11301,7 @@
     <row r="60">
       <c r="A60" t="inlineStr" s="0">
         <is>
-          <t>Mixed</t>
+          <t>Mostly Third Person</t>
         </is>
       </c>
       <c r="B60" t="inlineStr" s="0">
@@ -11573,7 +11318,7 @@
     <row r="61">
       <c r="A61" t="inlineStr" s="0">
         <is>
-          <t>Mostly Third Person</t>
+          <t>Third Person Only</t>
         </is>
       </c>
       <c r="B61" t="inlineStr" s="0">
@@ -11582,23 +11327,6 @@
         </is>
       </c>
       <c r="C61" t="inlineStr" s="0">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr" s="0">
-        <is>
-          <t>Third Person Only</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr" s="0">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr" s="0">
         <is>
           <t>Yes</t>
         </is>
@@ -11675,7 +11403,7 @@
       </c>
       <c r="B4" t="inlineStr" s="5">
         <is>
-          <t>Chance Preset Off disables chance rolls (cooldown only). Always forces 100%.</t>
+          <t>Chance Preset Off disables chance rolls (cooldown only).</t>
         </is>
       </c>
       <c r="C4" t="inlineStr" s="5">
@@ -11976,12 +11704,12 @@
     <row r="22">
       <c r="A22" t="inlineStr" s="0">
         <is>
-          <t>Always</t>
+          <t/>
         </is>
       </c>
       <c r="B22" t="inlineStr" s="0">
         <is>
-          <t>100%</t>
+          <t/>
         </is>
       </c>
       <c r="C22" t="inlineStr" s="0">
@@ -11991,51 +11719,49 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr" s="0">
+      <c r="A23" t="inlineStr" s="7">
+        <is>
+          <t>Cooldown Presets (from Intensity Balanced)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr" s="7">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr" s="7">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr" s="7">
-        <is>
-          <t>Cooldown Presets (from Intensity Balanced)</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr" s="7">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr" s="7">
+      <c r="A24" t="inlineStr" s="4">
+        <is>
+          <t>Preset</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr" s="4">
+        <is>
+          <t>Cooldown (s)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr" s="4">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr" s="4">
-        <is>
-          <t>Preset</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr" s="4">
-        <is>
-          <t>Cooldown (s)</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr" s="4">
+      <c r="A25" t="inlineStr" s="0">
+        <is>
+          <t>Off</t>
+        </is>
+      </c>
+      <c r="B25" s="0">
+        <v>0</v>
+      </c>
+      <c r="C25" t="inlineStr" s="0">
         <is>
           <t/>
         </is>
@@ -12044,11 +11770,11 @@
     <row r="26">
       <c r="A26" t="inlineStr" s="0">
         <is>
-          <t>Off</t>
+          <t>Short</t>
         </is>
       </c>
       <c r="B26" s="0">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="C26" t="inlineStr" s="0">
         <is>
@@ -12059,11 +11785,11 @@
     <row r="27">
       <c r="A27" t="inlineStr" s="0">
         <is>
-          <t>Short</t>
+          <t>Balanced</t>
         </is>
       </c>
       <c r="B27" s="0">
-        <v>31.5</v>
+        <v>45</v>
       </c>
       <c r="C27" t="inlineStr" s="0">
         <is>
@@ -12074,11 +11800,11 @@
     <row r="28">
       <c r="A28" t="inlineStr" s="0">
         <is>
-          <t>Balanced</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="B28" s="0">
-        <v>45</v>
+        <v>67.5</v>
       </c>
       <c r="C28" t="inlineStr" s="0">
         <is>
@@ -12089,11 +11815,11 @@
     <row r="29">
       <c r="A29" t="inlineStr" s="0">
         <is>
-          <t>Long</t>
+          <t>Extended</t>
         </is>
       </c>
       <c r="B29" s="0">
-        <v>67.5</v>
+        <v>90</v>
       </c>
       <c r="C29" t="inlineStr" s="0">
         <is>
@@ -12104,11 +11830,13 @@
     <row r="30">
       <c r="A30" t="inlineStr" s="0">
         <is>
-          <t>Extended</t>
-        </is>
-      </c>
-      <c r="B30" s="0">
-        <v>90</v>
+          <t/>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="C30" t="inlineStr" s="0">
         <is>
@@ -12117,51 +11845,49 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr" s="0">
+      <c r="A31" t="inlineStr" s="8">
+        <is>
+          <t>Duration Presets (from Intensity Balanced)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr" s="8">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr" s="8">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr" s="8">
-        <is>
-          <t>Duration Presets (from Intensity Balanced)</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr" s="8">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr" s="8">
+      <c r="A32" t="inlineStr" s="4">
+        <is>
+          <t>Preset</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr" s="4">
+        <is>
+          <t>Duration (s)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr" s="4">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr" s="4">
-        <is>
-          <t>Preset</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr" s="4">
-        <is>
-          <t>Duration (s)</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr" s="4">
+      <c r="A33" t="inlineStr" s="0">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="B33" s="0">
+        <v>3.75</v>
+      </c>
+      <c r="C33" t="inlineStr" s="0">
         <is>
           <t/>
         </is>
@@ -12170,11 +11896,11 @@
     <row r="34">
       <c r="A34" t="inlineStr" s="0">
         <is>
-          <t>Short</t>
+          <t>Long</t>
         </is>
       </c>
       <c r="B34" s="0">
-        <v>3.75</v>
+        <v>6.25</v>
       </c>
       <c r="C34" t="inlineStr" s="0">
         <is>
@@ -12185,11 +11911,11 @@
     <row r="35">
       <c r="A35" t="inlineStr" s="0">
         <is>
-          <t>Long</t>
+          <t>Extended</t>
         </is>
       </c>
       <c r="B35" s="0">
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="C35" t="inlineStr" s="0">
         <is>
@@ -12200,11 +11926,13 @@
     <row r="36">
       <c r="A36" t="inlineStr" s="0">
         <is>
-          <t>Extended</t>
-        </is>
-      </c>
-      <c r="B36" s="0">
-        <v>7.5</v>
+          <t/>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="C36" t="inlineStr" s="0">
         <is>
@@ -12213,51 +11941,49 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr" s="0">
+      <c r="A37" t="inlineStr" s="9">
+        <is>
+          <t>Smoothness Presets (from Intensity Balanced)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr" s="9">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr" s="9">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr" s="9">
-        <is>
-          <t>Smoothness Presets (from Intensity Balanced)</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr" s="9">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr" s="9">
+      <c r="A38" t="inlineStr" s="4">
+        <is>
+          <t>Preset</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr" s="4">
+        <is>
+          <t>Smoothing</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr" s="4">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr" s="4">
-        <is>
-          <t>Preset</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr" s="4">
-        <is>
-          <t>Smoothing</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr" s="4">
+      <c r="A39" t="inlineStr" s="0">
+        <is>
+          <t>VerySnappy</t>
+        </is>
+      </c>
+      <c r="B39" s="0">
+        <v>6.4</v>
+      </c>
+      <c r="C39" t="inlineStr" s="0">
         <is>
           <t/>
         </is>
@@ -12266,11 +11992,11 @@
     <row r="40">
       <c r="A40" t="inlineStr" s="0">
         <is>
-          <t>VerySnappy</t>
+          <t>Snappy</t>
         </is>
       </c>
       <c r="B40" s="0">
-        <v>6.4</v>
+        <v>5</v>
       </c>
       <c r="C40" t="inlineStr" s="0">
         <is>
@@ -12281,11 +12007,11 @@
     <row r="41">
       <c r="A41" t="inlineStr" s="0">
         <is>
-          <t>Snappy</t>
+          <t>Smooth</t>
         </is>
       </c>
       <c r="B41" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C41" t="inlineStr" s="0">
         <is>
@@ -12296,11 +12022,11 @@
     <row r="42">
       <c r="A42" t="inlineStr" s="0">
         <is>
-          <t>Smooth</t>
+          <t>Cinematic</t>
         </is>
       </c>
       <c r="B42" s="0">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="C42" t="inlineStr" s="0">
         <is>
@@ -12311,11 +12037,11 @@
     <row r="43">
       <c r="A43" t="inlineStr" s="0">
         <is>
-          <t>Cinematic</t>
+          <t>UltraSmooth</t>
         </is>
       </c>
       <c r="B43" s="0">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="C43" t="inlineStr" s="0">
         <is>
@@ -12326,11 +12052,13 @@
     <row r="44">
       <c r="A44" t="inlineStr" s="0">
         <is>
-          <t>UltraSmooth</t>
-        </is>
-      </c>
-      <c r="B44" s="0">
-        <v>2</v>
+          <t/>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="C44" t="inlineStr" s="0">
         <is>
@@ -12339,51 +12067,51 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr" s="0">
+      <c r="A45" t="inlineStr" s="12">
+        <is>
+          <t>Trigger Profiles</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr" s="12">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr" s="12">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr" s="12">
-        <is>
-          <t>Trigger Profiles</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr" s="12">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr" s="12">
+      <c r="A46" t="inlineStr" s="4">
+        <is>
+          <t>Profile</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr" s="4">
+        <is>
+          <t>Enabled</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr" s="4">
         <is>
           <t/>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr" s="4">
-        <is>
-          <t>Profile</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr" s="4">
-        <is>
-          <t>Enabled</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr" s="4">
+      <c r="A47" t="inlineStr" s="0">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr" s="0">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr" s="0">
         <is>
           <t/>
         </is>
@@ -12392,12 +12120,12 @@
     <row r="48">
       <c r="A48" t="inlineStr" s="0">
         <is>
-          <t>All</t>
+          <t>KillsOnly</t>
         </is>
       </c>
       <c r="B48" t="inlineStr" s="0">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="C48" t="inlineStr" s="0">
@@ -12409,7 +12137,7 @@
     <row r="49">
       <c r="A49" t="inlineStr" s="0">
         <is>
-          <t>KillsOnly</t>
+          <t>Highlights</t>
         </is>
       </c>
       <c r="B49" t="inlineStr" s="0">
@@ -12426,7 +12154,7 @@
     <row r="50">
       <c r="A50" t="inlineStr" s="0">
         <is>
-          <t>Highlights</t>
+          <t>LastEnemyOnly</t>
         </is>
       </c>
       <c r="B50" t="inlineStr" s="0">
@@ -12443,126 +12171,126 @@
     <row r="51">
       <c r="A51" t="inlineStr" s="0">
         <is>
-          <t>LastEnemyOnly</t>
+          <t/>
         </is>
       </c>
       <c r="B51" t="inlineStr" s="0">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr" s="11">
+        <is>
+          <t>Killcam Base Chance</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr" s="11">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr" s="11">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr" s="4">
+        <is>
+          <t>Base Killcam Chance</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr" s="4">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr" s="4">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr" s="0">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr" s="11">
+        <is>
+          <t>Killcam by Third Person Distribution</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr" s="11">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr" s="11">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr" s="4">
+        <is>
+          <t>Third Person Distribution</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr" s="4">
+        <is>
+          <t>Killcam Chance</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr" s="4">
+        <is>
+          <t>Eligible</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr" s="0">
+        <is>
+          <t>First Person Only</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr" s="0">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr" s="0">
+        <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr" s="11">
-        <is>
-          <t>Killcam Base Chance</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr" s="11">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr" s="11">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr" s="4">
-        <is>
-          <t>Base Killcam Chance</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr" s="4">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr" s="4">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr" s="0">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr" s="11">
-        <is>
-          <t>Killcam by Third Person Distribution</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr" s="11">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr" s="11">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr" s="4">
-        <is>
-          <t>Third Person Distribution</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr" s="4">
-        <is>
-          <t>Killcam Chance</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr" s="4">
-        <is>
-          <t>Eligible</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr" s="0">
         <is>
-          <t>First Person Only</t>
+          <t>Mixed (Rare Third Person)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr" s="0">
@@ -12572,14 +12300,14 @@
       </c>
       <c r="C58" t="inlineStr" s="0">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr" s="0">
         <is>
-          <t>Mixed (Rare Third Person)</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="B59" t="inlineStr" s="0">
@@ -12596,7 +12324,7 @@
     <row r="60">
       <c r="A60" t="inlineStr" s="0">
         <is>
-          <t>Mixed</t>
+          <t>Mostly Third Person</t>
         </is>
       </c>
       <c r="B60" t="inlineStr" s="0">
@@ -12613,7 +12341,7 @@
     <row r="61">
       <c r="A61" t="inlineStr" s="0">
         <is>
-          <t>Mostly Third Person</t>
+          <t>Third Person Only</t>
         </is>
       </c>
       <c r="B61" t="inlineStr" s="0">
@@ -12622,23 +12350,6 @@
         </is>
       </c>
       <c r="C61" t="inlineStr" s="0">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr" s="0">
-        <is>
-          <t>Third Person Only</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr" s="0">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr" s="0">
         <is>
           <t>Yes</t>
         </is>

--- a/PRESET_GUIDE_ORGANIZED.xlsx
+++ b/PRESET_GUIDE_ORGANIZED.xlsx
@@ -194,7 +194,7 @@
       </c>
       <c r="B3" t="inlineStr" s="5">
         <is>
-          <t>Chance/Cooldown/Duration/Smoothness tables are derived from Intensity = Balanced.</t>
+          <t>Chance/Cooldown/Duration/Smoothness tables are derived from Intensity = Standard.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr" s="5">
@@ -262,7 +262,7 @@
       </c>
       <c r="B7" t="inlineStr" s="5">
         <is>
-          <t>Killcam tables assume Camera Mode = Default.</t>
+          <t>Killcam tables assume Third Person Distribution controls killcam.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr" s="5">
@@ -1311,7 +1311,7 @@
     <row r="69">
       <c r="A69" t="inlineStr" s="6">
         <is>
-          <t>Intensity Preset: Balanced</t>
+          <t>Intensity Preset: Standard</t>
         </is>
       </c>
       <c r="B69" t="inlineStr" s="6">
@@ -2331,7 +2331,7 @@
     <row r="129">
       <c r="A129" t="inlineStr" s="7">
         <is>
-          <t>Chance Preset: Balanced (Chance x1)</t>
+          <t>Chance Preset: Standard (Chance x1)</t>
         </is>
       </c>
       <c r="B129" t="inlineStr" s="7">
@@ -2983,7 +2983,7 @@
     <row r="169">
       <c r="A169" t="inlineStr" s="7">
         <is>
-          <t>Cooldown Preset: Balanced (Cooldown x1)</t>
+          <t>Cooldown Preset: Standard (Cooldown x1)</t>
         </is>
       </c>
       <c r="B169" t="inlineStr" s="7">
@@ -5248,7 +5248,7 @@
       </c>
       <c r="B3" t="inlineStr" s="5">
         <is>
-          <t>Chance/Cooldown/Duration/Smoothness derived from Intensity = Balanced.</t>
+          <t>Chance/Cooldown/Duration/Smoothness derived from Intensity = Standard.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr" s="5">
@@ -5379,7 +5379,7 @@
     <row r="11">
       <c r="A11" t="inlineStr" s="0">
         <is>
-          <t>Balanced</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="B11" t="inlineStr" s="0">
@@ -5464,7 +5464,7 @@
     <row r="16">
       <c r="A16" t="inlineStr" s="7">
         <is>
-          <t>Chance Presets (from Intensity Balanced)</t>
+          <t>Chance Presets (from Intensity Standard)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr" s="7">
@@ -5532,7 +5532,7 @@
     <row r="20">
       <c r="A20" t="inlineStr" s="0">
         <is>
-          <t>Balanced</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="B20" t="inlineStr" s="0">
@@ -5583,7 +5583,7 @@
     <row r="23">
       <c r="A23" t="inlineStr" s="7">
         <is>
-          <t>Cooldown Presets (from Intensity Balanced)</t>
+          <t>Cooldown Presets (from Intensity Standard)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr" s="7">
@@ -5647,7 +5647,7 @@
     <row r="27">
       <c r="A27" t="inlineStr" s="0">
         <is>
-          <t>Balanced</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="B27" s="0">
@@ -5709,7 +5709,7 @@
     <row r="31">
       <c r="A31" t="inlineStr" s="8">
         <is>
-          <t>Duration Presets (from Intensity Balanced)</t>
+          <t>Duration Presets (from Intensity Standard)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr" s="8">
@@ -5805,7 +5805,7 @@
     <row r="37">
       <c r="A37" t="inlineStr" s="9">
         <is>
-          <t>Smoothness Presets (from Intensity Balanced)</t>
+          <t>Smoothness Presets (from Intensity Standard)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr" s="9">
@@ -6271,7 +6271,7 @@
       </c>
       <c r="B3" t="inlineStr" s="5">
         <is>
-          <t>Chance/Cooldown/Duration/Smoothness derived from Intensity = Balanced.</t>
+          <t>Chance/Cooldown/Duration/Smoothness derived from Intensity = Standard.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr" s="5">
@@ -6402,7 +6402,7 @@
     <row r="11">
       <c r="A11" t="inlineStr" s="0">
         <is>
-          <t>Balanced</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="B11" t="inlineStr" s="0">
@@ -6487,7 +6487,7 @@
     <row r="16">
       <c r="A16" t="inlineStr" s="7">
         <is>
-          <t>Chance Presets (from Intensity Balanced)</t>
+          <t>Chance Presets (from Intensity Standard)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr" s="7">
@@ -6555,7 +6555,7 @@
     <row r="20">
       <c r="A20" t="inlineStr" s="0">
         <is>
-          <t>Balanced</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="B20" t="inlineStr" s="0">
@@ -6606,7 +6606,7 @@
     <row r="23">
       <c r="A23" t="inlineStr" s="7">
         <is>
-          <t>Cooldown Presets (from Intensity Balanced)</t>
+          <t>Cooldown Presets (from Intensity Standard)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr" s="7">
@@ -6670,7 +6670,7 @@
     <row r="27">
       <c r="A27" t="inlineStr" s="0">
         <is>
-          <t>Balanced</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="B27" s="0">
@@ -6732,7 +6732,7 @@
     <row r="31">
       <c r="A31" t="inlineStr" s="8">
         <is>
-          <t>Duration Presets (from Intensity Balanced)</t>
+          <t>Duration Presets (from Intensity Standard)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr" s="8">
@@ -6828,7 +6828,7 @@
     <row r="37">
       <c r="A37" t="inlineStr" s="9">
         <is>
-          <t>Smoothness Presets (from Intensity Balanced)</t>
+          <t>Smoothness Presets (from Intensity Standard)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr" s="9">
@@ -7294,7 +7294,7 @@
       </c>
       <c r="B3" t="inlineStr" s="5">
         <is>
-          <t>Chance/Cooldown/Duration/Smoothness derived from Intensity = Balanced.</t>
+          <t>Chance/Cooldown/Duration/Smoothness derived from Intensity = Standard.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr" s="5">
@@ -7425,7 +7425,7 @@
     <row r="11">
       <c r="A11" t="inlineStr" s="0">
         <is>
-          <t>Balanced</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="B11" t="inlineStr" s="0">
@@ -7510,7 +7510,7 @@
     <row r="16">
       <c r="A16" t="inlineStr" s="7">
         <is>
-          <t>Chance Presets (from Intensity Balanced)</t>
+          <t>Chance Presets (from Intensity Standard)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr" s="7">
@@ -7578,7 +7578,7 @@
     <row r="20">
       <c r="A20" t="inlineStr" s="0">
         <is>
-          <t>Balanced</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="B20" t="inlineStr" s="0">
@@ -7629,7 +7629,7 @@
     <row r="23">
       <c r="A23" t="inlineStr" s="7">
         <is>
-          <t>Cooldown Presets (from Intensity Balanced)</t>
+          <t>Cooldown Presets (from Intensity Standard)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr" s="7">
@@ -7693,7 +7693,7 @@
     <row r="27">
       <c r="A27" t="inlineStr" s="0">
         <is>
-          <t>Balanced</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="B27" s="0">
@@ -7755,7 +7755,7 @@
     <row r="31">
       <c r="A31" t="inlineStr" s="8">
         <is>
-          <t>Duration Presets (from Intensity Balanced)</t>
+          <t>Duration Presets (from Intensity Standard)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr" s="8">
@@ -7851,7 +7851,7 @@
     <row r="37">
       <c r="A37" t="inlineStr" s="9">
         <is>
-          <t>Smoothness Presets (from Intensity Balanced)</t>
+          <t>Smoothness Presets (from Intensity Standard)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr" s="9">
@@ -8317,7 +8317,7 @@
       </c>
       <c r="B3" t="inlineStr" s="5">
         <is>
-          <t>Chance/Cooldown/Duration/Smoothness derived from Intensity = Balanced.</t>
+          <t>Chance/Cooldown/Duration/Smoothness derived from Intensity = Standard.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr" s="5">
@@ -8448,7 +8448,7 @@
     <row r="11">
       <c r="A11" t="inlineStr" s="0">
         <is>
-          <t>Balanced</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="B11" t="inlineStr" s="0">
@@ -8533,7 +8533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr" s="7">
         <is>
-          <t>Chance Presets (from Intensity Balanced)</t>
+          <t>Chance Presets (from Intensity Standard)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr" s="7">
@@ -8601,7 +8601,7 @@
     <row r="20">
       <c r="A20" t="inlineStr" s="0">
         <is>
-          <t>Balanced</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="B20" t="inlineStr" s="0">
@@ -8652,7 +8652,7 @@
     <row r="23">
       <c r="A23" t="inlineStr" s="7">
         <is>
-          <t>Cooldown Presets (from Intensity Balanced)</t>
+          <t>Cooldown Presets (from Intensity Standard)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr" s="7">
@@ -8716,7 +8716,7 @@
     <row r="27">
       <c r="A27" t="inlineStr" s="0">
         <is>
-          <t>Balanced</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="B27" s="0">
@@ -8778,7 +8778,7 @@
     <row r="31">
       <c r="A31" t="inlineStr" s="8">
         <is>
-          <t>Duration Presets (from Intensity Balanced)</t>
+          <t>Duration Presets (from Intensity Standard)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr" s="8">
@@ -8874,7 +8874,7 @@
     <row r="37">
       <c r="A37" t="inlineStr" s="9">
         <is>
-          <t>Smoothness Presets (from Intensity Balanced)</t>
+          <t>Smoothness Presets (from Intensity Standard)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr" s="9">
@@ -9340,7 +9340,7 @@
       </c>
       <c r="B3" t="inlineStr" s="5">
         <is>
-          <t>Chance/Cooldown/Duration/Smoothness derived from Intensity = Balanced.</t>
+          <t>Chance/Cooldown/Duration/Smoothness derived from Intensity = Standard.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr" s="5">
@@ -9471,7 +9471,7 @@
     <row r="11">
       <c r="A11" t="inlineStr" s="0">
         <is>
-          <t>Balanced</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="B11" t="inlineStr" s="0">
@@ -9556,7 +9556,7 @@
     <row r="16">
       <c r="A16" t="inlineStr" s="7">
         <is>
-          <t>Chance Presets (from Intensity Balanced)</t>
+          <t>Chance Presets (from Intensity Standard)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr" s="7">
@@ -9624,7 +9624,7 @@
     <row r="20">
       <c r="A20" t="inlineStr" s="0">
         <is>
-          <t>Balanced</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="B20" t="inlineStr" s="0">
@@ -9675,7 +9675,7 @@
     <row r="23">
       <c r="A23" t="inlineStr" s="7">
         <is>
-          <t>Cooldown Presets (from Intensity Balanced)</t>
+          <t>Cooldown Presets (from Intensity Standard)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr" s="7">
@@ -9739,7 +9739,7 @@
     <row r="27">
       <c r="A27" t="inlineStr" s="0">
         <is>
-          <t>Balanced</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="B27" s="0">
@@ -9801,7 +9801,7 @@
     <row r="31">
       <c r="A31" t="inlineStr" s="8">
         <is>
-          <t>Duration Presets (from Intensity Balanced)</t>
+          <t>Duration Presets (from Intensity Standard)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr" s="8">
@@ -9897,7 +9897,7 @@
     <row r="37">
       <c r="A37" t="inlineStr" s="9">
         <is>
-          <t>Smoothness Presets (from Intensity Balanced)</t>
+          <t>Smoothness Presets (from Intensity Standard)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr" s="9">
@@ -10363,7 +10363,7 @@
       </c>
       <c r="B3" t="inlineStr" s="5">
         <is>
-          <t>Chance/Cooldown/Duration/Smoothness derived from Intensity = Balanced.</t>
+          <t>Chance/Cooldown/Duration/Smoothness derived from Intensity = Standard.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr" s="5">
@@ -10494,7 +10494,7 @@
     <row r="11">
       <c r="A11" t="inlineStr" s="0">
         <is>
-          <t>Balanced</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="B11" t="inlineStr" s="0">
@@ -10579,7 +10579,7 @@
     <row r="16">
       <c r="A16" t="inlineStr" s="7">
         <is>
-          <t>Chance Presets (from Intensity Balanced)</t>
+          <t>Chance Presets (from Intensity Standard)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr" s="7">
@@ -10647,7 +10647,7 @@
     <row r="20">
       <c r="A20" t="inlineStr" s="0">
         <is>
-          <t>Balanced</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="B20" t="inlineStr" s="0">
@@ -10698,7 +10698,7 @@
     <row r="23">
       <c r="A23" t="inlineStr" s="7">
         <is>
-          <t>Cooldown Presets (from Intensity Balanced)</t>
+          <t>Cooldown Presets (from Intensity Standard)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr" s="7">
@@ -10762,7 +10762,7 @@
     <row r="27">
       <c r="A27" t="inlineStr" s="0">
         <is>
-          <t>Balanced</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="B27" s="0">
@@ -10824,7 +10824,7 @@
     <row r="31">
       <c r="A31" t="inlineStr" s="8">
         <is>
-          <t>Duration Presets (from Intensity Balanced)</t>
+          <t>Duration Presets (from Intensity Standard)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr" s="8">
@@ -10920,7 +10920,7 @@
     <row r="37">
       <c r="A37" t="inlineStr" s="9">
         <is>
-          <t>Smoothness Presets (from Intensity Balanced)</t>
+          <t>Smoothness Presets (from Intensity Standard)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr" s="9">
@@ -11386,7 +11386,7 @@
       </c>
       <c r="B3" t="inlineStr" s="5">
         <is>
-          <t>Chance/Cooldown/Duration/Smoothness derived from Intensity = Balanced.</t>
+          <t>Chance/Cooldown/Duration/Smoothness derived from Intensity = Standard.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr" s="5">
@@ -11517,7 +11517,7 @@
     <row r="11">
       <c r="A11" t="inlineStr" s="0">
         <is>
-          <t>Balanced</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="B11" t="inlineStr" s="0">
@@ -11602,7 +11602,7 @@
     <row r="16">
       <c r="A16" t="inlineStr" s="7">
         <is>
-          <t>Chance Presets (from Intensity Balanced)</t>
+          <t>Chance Presets (from Intensity Standard)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr" s="7">
@@ -11670,7 +11670,7 @@
     <row r="20">
       <c r="A20" t="inlineStr" s="0">
         <is>
-          <t>Balanced</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="B20" t="inlineStr" s="0">
@@ -11721,7 +11721,7 @@
     <row r="23">
       <c r="A23" t="inlineStr" s="7">
         <is>
-          <t>Cooldown Presets (from Intensity Balanced)</t>
+          <t>Cooldown Presets (from Intensity Standard)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr" s="7">
@@ -11785,7 +11785,7 @@
     <row r="27">
       <c r="A27" t="inlineStr" s="0">
         <is>
-          <t>Balanced</t>
+          <t>Standard</t>
         </is>
       </c>
       <c r="B27" s="0">
@@ -11847,7 +11847,7 @@
     <row r="31">
       <c r="A31" t="inlineStr" s="8">
         <is>
-          <t>Duration Presets (from Intensity Balanced)</t>
+          <t>Duration Presets (from Intensity Standard)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr" s="8">
@@ -11943,7 +11943,7 @@
     <row r="37">
       <c r="A37" t="inlineStr" s="9">
         <is>
-          <t>Smoothness Presets (from Intensity Balanced)</t>
+          <t>Smoothness Presets (from Intensity Standard)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr" s="9">

--- a/PRESET_GUIDE_ORGANIZED.xlsx
+++ b/PRESET_GUIDE_ORGANIZED.xlsx
@@ -3941,7 +3941,7 @@
       </c>
       <c r="B230" t="inlineStr" s="4">
         <is>
-          <t>Smoothing</t>
+          <t>Smoothing (x)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr" s="4">
@@ -4097,7 +4097,7 @@
       </c>
       <c r="B240" t="inlineStr" s="4">
         <is>
-          <t>Smoothing</t>
+          <t>Smoothing (x)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr" s="4">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="B250" t="inlineStr" s="4">
         <is>
-          <t>Smoothing</t>
+          <t>Smoothing (x)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr" s="4">
@@ -4409,7 +4409,7 @@
       </c>
       <c r="B260" t="inlineStr" s="4">
         <is>
-          <t>Smoothing</t>
+          <t>Smoothing (x)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr" s="4">
@@ -4565,7 +4565,7 @@
       </c>
       <c r="B270" t="inlineStr" s="4">
         <is>
-          <t>Smoothing</t>
+          <t>Smoothing (x)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr" s="4">
@@ -5827,7 +5827,7 @@
       </c>
       <c r="B38" t="inlineStr" s="4">
         <is>
-          <t>Smoothing</t>
+          <t>Smoothing (x)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr" s="4">
@@ -6850,7 +6850,7 @@
       </c>
       <c r="B38" t="inlineStr" s="4">
         <is>
-          <t>Smoothing</t>
+          <t>Smoothing (x)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr" s="4">
@@ -7873,7 +7873,7 @@
       </c>
       <c r="B38" t="inlineStr" s="4">
         <is>
-          <t>Smoothing</t>
+          <t>Smoothing (x)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr" s="4">
@@ -8896,7 +8896,7 @@
       </c>
       <c r="B38" t="inlineStr" s="4">
         <is>
-          <t>Smoothing</t>
+          <t>Smoothing (x)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr" s="4">
@@ -9919,7 +9919,7 @@
       </c>
       <c r="B38" t="inlineStr" s="4">
         <is>
-          <t>Smoothing</t>
+          <t>Smoothing (x)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr" s="4">
@@ -10942,7 +10942,7 @@
       </c>
       <c r="B38" t="inlineStr" s="4">
         <is>
-          <t>Smoothing</t>
+          <t>Smoothing (x)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr" s="4">
@@ -11965,7 +11965,7 @@
       </c>
       <c r="B38" t="inlineStr" s="4">
         <is>
-          <t>Smoothing</t>
+          <t>Smoothing (x)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr" s="4">
